--- a/code/output/model_output/apollo/vehicle/0_vehicle_model_combine_output.xlsx
+++ b/code/output/model_output/apollo/vehicle/0_vehicle_model_combine_output.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/model_output/apollo/vehicle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2681A-1DE9-2B47-ADFB-5D27FDBA5A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1069BDA4-77DF-6345-BCC6-E2323D069B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="2660" windowWidth="28880" windowHeight="15340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="3300" windowWidth="28880" windowHeight="15340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="coef_fit" sheetId="1" r:id="rId1"/>
-    <sheet name="WTP" sheetId="2" r:id="rId2"/>
-    <sheet name="Factor_analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="pref_1class" sheetId="4" r:id="rId1"/>
+    <sheet name="wtp_1class" sheetId="5" r:id="rId2"/>
+    <sheet name="coef_fit" sheetId="1" r:id="rId3"/>
+    <sheet name="WTP" sheetId="2" r:id="rId4"/>
+    <sheet name="Factor_analysis" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="122">
   <si>
     <t>b_no_choice_a</t>
   </si>
@@ -446,6 +448,36 @@
   </si>
   <si>
     <t>BEV averse</t>
+  </si>
+  <si>
+    <t>150-mile-range BEV</t>
+  </si>
+  <si>
+    <t>b_no_choice</t>
+  </si>
+  <si>
+    <t>b_powertrainbev</t>
+  </si>
+  <si>
+    <t>b_powertrainhev</t>
+  </si>
+  <si>
+    <t>b_range_bev</t>
+  </si>
+  <si>
+    <t>b_mileage</t>
+  </si>
+  <si>
+    <t>b_age</t>
+  </si>
+  <si>
+    <t>b_operating_cost</t>
+  </si>
+  <si>
+    <t>b_price</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
 </sst>
 </file>
@@ -652,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -721,15 +753,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -750,20 +773,8 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -813,6 +824,18 @@
     <xf numFmtId="2" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,6 +916,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06CA140-5C37-4F37-93A1-380A1A75C725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="190500"/>
+          <a:ext cx="7772400" cy="7202424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>113532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD834614-C959-3A97-7E2E-51ACC122B4D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="7835900"/>
+          <a:ext cx="7772400" cy="2399532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1257,10 +1373,1279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723A627A-5459-5940-997D-EC9F00CC1B19}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" customHeight="1">
+      <c r="B2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="26">
+        <v>-5.0045006659382203</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0.25027928462875298</v>
+      </c>
+      <c r="D3" s="26">
+        <v>-19.995664736542398</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.30320232572105199</v>
+      </c>
+      <c r="G3" s="26">
+        <v>-16.505482449835799</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="26">
+        <v>-2.1287160894559198</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.19296065284366501</v>
+      </c>
+      <c r="D4" s="26">
+        <v>-11.031866124440301</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.26432083446274701</v>
+      </c>
+      <c r="G4" s="26">
+        <v>-8.0535312087020898</v>
+      </c>
+      <c r="H4" s="26">
+        <v>8.8817841970012504E-16</v>
+      </c>
+      <c r="I4" s="26">
+        <f>B4/B$10</f>
+        <v>2.4819885390411764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="26">
+        <v>-0.37718190415545999</v>
+      </c>
+      <c r="C5" s="26">
+        <v>8.6328114316743101E-2</v>
+      </c>
+      <c r="D5" s="26">
+        <v>-4.3691664892801496</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1.2472165646038E-5</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.109485180184051</v>
+      </c>
+      <c r="G5" s="26">
+        <v>-3.4450498553447599</v>
+      </c>
+      <c r="H5" s="26">
+        <v>5.7095407294838196E-4</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" ref="I5:I10" si="0">B5/B$10</f>
+        <v>0.43977736997649758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0.42829151585009001</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.113289358529581</v>
+      </c>
+      <c r="D6" s="26">
+        <v>3.7805096737153798</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1.5650763779428999E-4</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.14625631285084201</v>
+      </c>
+      <c r="G6" s="26">
+        <v>2.9283625951030099</v>
+      </c>
+      <c r="H6" s="26">
+        <v>3.4075240688706799E-3</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.49936891019609503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="26">
+        <v>-0.17531716884319801</v>
+      </c>
+      <c r="C7" s="26">
+        <v>2.51218082216687E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>-6.9786843087186101</v>
+      </c>
+      <c r="E7" s="26">
+        <v>2.979616553489E-12</v>
+      </c>
+      <c r="F7" s="26">
+        <v>2.9405132758158498E-2</v>
+      </c>
+      <c r="G7" s="26">
+        <v>-5.9621281184168602</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2.4897381933897102E-9</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="0"/>
+        <v>0.20441204250829936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="26">
+        <v>-9.1764899236797801E-2</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1.4432679596191799E-2</v>
+      </c>
+      <c r="D8" s="26">
+        <v>-6.3581331952391604</v>
+      </c>
+      <c r="E8" s="26">
+        <v>2.0422041835388401E-10</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1.5176850815058899E-2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>-6.0463728842709603</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1.48143008971147E-9</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="0"/>
+        <v>0.10699380218909969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="26">
+        <v>-0.70951504536134402</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.107027155772644</v>
+      </c>
+      <c r="D9" s="26">
+        <v>-6.6292992674546296</v>
+      </c>
+      <c r="E9" s="26">
+        <v>3.3728353443507298E-11</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.112756217420618</v>
+      </c>
+      <c r="G9" s="26">
+        <v>-6.29246937855868</v>
+      </c>
+      <c r="H9" s="26">
+        <v>3.12454950801566E-10</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="0"/>
+        <v>0.82726307166411928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="26">
+        <v>-0.85766555967992897</v>
+      </c>
+      <c r="C10" s="26">
+        <v>5.88482546822078E-2</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-14.574188551750501</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>7.7952628126673806E-2</v>
+      </c>
+      <c r="G10" s="26">
+        <v>-11.0023944065903</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="26">
+        <v>-4.7202260898395103</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.22876577344010601</v>
+      </c>
+      <c r="D15" s="26">
+        <v>-20.633445374534201</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.29710528667388197</v>
+      </c>
+      <c r="G15" s="26">
+        <v>-15.887385050204999</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="26">
+        <v>-1.94128182004157</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.24380465782203201</v>
+      </c>
+      <c r="D16" s="26">
+        <v>-7.9624476307529397</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1.7763568394002501E-15</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.32299294085911101</v>
+      </c>
+      <c r="G16" s="26">
+        <v>-6.0102917880436104</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1.8518970801295601E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="26">
+        <v>-0.141113449809259</v>
+      </c>
+      <c r="C17" s="26">
+        <v>6.8211802494865997E-2</v>
+      </c>
+      <c r="D17" s="26">
+        <v>-2.0687541546769701</v>
+      </c>
+      <c r="E17" s="26">
+        <v>3.8569162513471401E-2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>9.2923831248923297E-2</v>
+      </c>
+      <c r="G17" s="26">
+        <v>-1.5185926786772901</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0.12886505514252899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.33272832138501302</v>
+      </c>
+      <c r="C18" s="26">
+        <v>8.9438654525143296E-2</v>
+      </c>
+      <c r="D18" s="26">
+        <v>3.7201847808597699</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1.99077071961096E-4</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0.111797040303221</v>
+      </c>
+      <c r="G18" s="26">
+        <v>2.9761818424045301</v>
+      </c>
+      <c r="H18" s="26">
+        <v>2.9186174621336201E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="26">
+        <v>-0.233087254459381</v>
+      </c>
+      <c r="C19" s="26">
+        <v>2.3425738165492701E-2</v>
+      </c>
+      <c r="D19" s="26">
+        <v>-9.9500495059203597</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2.69797065937992E-2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>-8.6393546812310902</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="26">
+        <v>-9.7896835409067406E-2</v>
+      </c>
+      <c r="C20" s="26">
+        <v>1.30249640816937E-2</v>
+      </c>
+      <c r="D20" s="26">
+        <v>-7.5160925431386802</v>
+      </c>
+      <c r="E20" s="26">
+        <v>5.6399329650958003E-14</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1.42569452980775E-2</v>
+      </c>
+      <c r="G20" s="26">
+        <v>-6.8666066511644797</v>
+      </c>
+      <c r="H20" s="26">
+        <v>6.5747407518301803E-12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="26">
+        <v>-0.51133033579905995</v>
+      </c>
+      <c r="C21" s="26">
+        <v>8.7186057427708394E-2</v>
+      </c>
+      <c r="D21" s="26">
+        <v>-5.8648177344529699</v>
+      </c>
+      <c r="E21" s="26">
+        <v>4.4962631395861796E-9</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.10130962565949</v>
+      </c>
+      <c r="G21" s="26">
+        <v>-5.0472038808797999</v>
+      </c>
+      <c r="H21" s="26">
+        <v>4.4832286039131501E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="26">
+        <v>-0.66356797313928395</v>
+      </c>
+      <c r="C22" s="26">
+        <v>4.4810854331549098E-2</v>
+      </c>
+      <c r="D22" s="26">
+        <v>-14.8081973226763</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>6.19641774410827E-2</v>
+      </c>
+      <c r="G22" s="26">
+        <v>-10.7088966648548</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16">
+      <c r="B27" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+    </row>
+    <row r="28" spans="1:8" ht="17">
+      <c r="B28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="42">
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="16">
+      <c r="A31" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="26">
+        <v>-5.0045006659382203</v>
+      </c>
+      <c r="C31" s="19">
+        <v>-2.4819884999999999</v>
+      </c>
+      <c r="D31" s="19">
+        <v>-0.43977739999999998</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.4993689</v>
+      </c>
+      <c r="F31" s="21">
+        <v>-0.20441200000000001</v>
+      </c>
+      <c r="G31" s="19">
+        <v>-0.1069938</v>
+      </c>
+      <c r="H31" s="19">
+        <v>-0.82726310000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="26">
+        <v>-4.7202260898395103</v>
+      </c>
+      <c r="C32" s="19">
+        <v>-2.9255206999999999</v>
+      </c>
+      <c r="D32" s="19">
+        <v>-0.2126586</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.50142310000000001</v>
+      </c>
+      <c r="F32" s="19">
+        <v>-0.35126360000000001</v>
+      </c>
+      <c r="G32" s="19">
+        <v>-0.147531</v>
+      </c>
+      <c r="H32" s="19">
+        <v>-0.77057719999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="E33" s="66"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B27:H27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC7DF6A-25E5-2845-B540-C906C026AC2D}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" customHeight="1">
+      <c r="B2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="26">
+        <v>-5.0045045150101704</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0.25027932664024</v>
+      </c>
+      <c r="D3" s="26">
+        <v>-19.995676759206798</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.30320239844128999</v>
+      </c>
+      <c r="G3" s="26">
+        <v>-16.505491185879301</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2.4819854517854898</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.267472461367803</v>
+      </c>
+      <c r="D4" s="26">
+        <v>9.2794055847584893</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.377215782171335</v>
+      </c>
+      <c r="G4" s="26">
+        <v>6.57974975887449</v>
+      </c>
+      <c r="H4" s="26">
+        <v>4.7124082414029499E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.43977955300725102</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.10468278127423999</v>
+      </c>
+      <c r="D5" s="26">
+        <v>4.2010686729382201</v>
+      </c>
+      <c r="E5" s="26">
+        <v>2.6565798640243399E-5</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.13360408216595801</v>
+      </c>
+      <c r="G5" s="26">
+        <v>3.29166254412028</v>
+      </c>
+      <c r="H5" s="26">
+        <v>9.9597042519006295E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="26">
+        <v>-0.499364401818649</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.13368466865846601</v>
+      </c>
+      <c r="D6" s="26">
+        <v>-3.7353902046494998</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1.8742434115370801E-4</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.17766453683161201</v>
+      </c>
+      <c r="G6" s="26">
+        <v>-2.8107151304592701</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4.9431530366070798E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0.20441265994548199</v>
+      </c>
+      <c r="C7" s="26">
+        <v>3.1668354103407299E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>6.4547926702477101</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1.08367093076822E-10</v>
+      </c>
+      <c r="F7" s="26">
+        <v>3.7786752352392997E-2</v>
+      </c>
+      <c r="G7" s="26">
+        <v>5.4096382255655104</v>
+      </c>
+      <c r="H7" s="26">
+        <v>6.3152191920323704E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="26">
+        <v>0.106994006327932</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1.8023214218642499E-2</v>
+      </c>
+      <c r="D8" s="26">
+        <v>5.9364553419812198</v>
+      </c>
+      <c r="E8" s="26">
+        <v>2.9125020173381699E-9</v>
+      </c>
+      <c r="F8" s="26">
+        <v>2.0560135367759198E-2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>5.2039543716094201</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1.9509192683564399E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="26">
+        <v>0.82726623838640601</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.134299250169023</v>
+      </c>
+      <c r="D9" s="26">
+        <v>6.1598723547990701</v>
+      </c>
+      <c r="E9" s="26">
+        <v>7.2803607586990903E-10</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.14345650405930899</v>
+      </c>
+      <c r="G9" s="26">
+        <v>5.7666694431950498</v>
+      </c>
+      <c r="H9" s="26">
+        <v>8.0853415074244595E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="26">
+        <v>-0.85766509973989902</v>
+      </c>
+      <c r="C10" s="26">
+        <v>5.8848269539776697E-2</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-14.5741770564755</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>7.79526592792774E-2</v>
+      </c>
+      <c r="G10" s="26">
+        <v>-11.0023841094013</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="26">
+        <v>-4.7202266861907702</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.22876578235035899</v>
+      </c>
+      <c r="D15" s="26">
+        <v>-20.633447177697501</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.29710538930832497</v>
+      </c>
+      <c r="G15" s="26">
+        <v>-15.8873815691451</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="26">
+        <v>2.9255105828363299</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.39856921606599399</v>
+      </c>
+      <c r="D16" s="26">
+        <v>7.3400314547923804</v>
+      </c>
+      <c r="E16" s="26">
+        <v>2.1360690993787999E-13</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.544271376810184</v>
+      </c>
+      <c r="G16" s="26">
+        <v>5.3750954165216296</v>
+      </c>
+      <c r="H16" s="26">
+        <v>7.6542137517066106E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.21265454764581199</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.103617826357168</v>
+      </c>
+      <c r="D17" s="26">
+        <v>2.0522969369459401</v>
+      </c>
+      <c r="E17" s="26">
+        <v>4.0140813516855098E-2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.14360440293559801</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1.48083584694253</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0.13865032162449101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="26">
+        <v>-0.50142044513103601</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.135753101893129</v>
+      </c>
+      <c r="D18" s="26">
+        <v>-3.6936205371261202</v>
+      </c>
+      <c r="E18" s="26">
+        <v>2.21083639523556E-4</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0.172235214716426</v>
+      </c>
+      <c r="G18" s="26">
+        <v>-2.9112539265364101</v>
+      </c>
+      <c r="H18" s="26">
+        <v>3.5998133347045999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="26">
+        <v>0.35126190362368398</v>
+      </c>
+      <c r="C19" s="26">
+        <v>4.1267824027385297E-2</v>
+      </c>
+      <c r="D19" s="26">
+        <v>8.5117621755532102</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>5.00401595584435E-2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>7.0195999917513197</v>
+      </c>
+      <c r="H19" s="26">
+        <v>2.22510898595374E-12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="26">
+        <v>0.14753066600800199</v>
+      </c>
+      <c r="C20" s="26">
+        <v>2.1387009804946899E-2</v>
+      </c>
+      <c r="D20" s="26">
+        <v>6.8981436560559803</v>
+      </c>
+      <c r="E20" s="26">
+        <v>5.2686743856611396E-12</v>
+      </c>
+      <c r="F20" s="26">
+        <v>2.3703242634579302E-2</v>
+      </c>
+      <c r="G20" s="26">
+        <v>6.2240710388197202</v>
+      </c>
+      <c r="H20" s="26">
+        <v>4.8441761713036199E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="26">
+        <v>0.77057479161425502</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.13986955411811799</v>
+      </c>
+      <c r="D21" s="26">
+        <v>5.5092389224570804</v>
+      </c>
+      <c r="E21" s="26">
+        <v>3.6038847461838901E-8</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.16770063238483099</v>
+      </c>
+      <c r="G21" s="26">
+        <v>4.59494267049618</v>
+      </c>
+      <c r="H21" s="26">
+        <v>4.3286826210131596E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="26">
+        <v>-0.66356912135207002</v>
+      </c>
+      <c r="C22" s="26">
+        <v>4.4810852675414799E-2</v>
+      </c>
+      <c r="D22" s="26">
+        <v>-14.808223493505</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>6.1964179744189503E-2</v>
+      </c>
+      <c r="G22" s="26">
+        <v>-10.7089147970896</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16">
+      <c r="B27" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+    </row>
+    <row r="28" spans="1:8" ht="17">
+      <c r="B28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="42">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="16">
+      <c r="A31" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="19">
+        <v>-5.8350258000000004</v>
+      </c>
+      <c r="C31" s="19">
+        <v>-2.4819884999999999</v>
+      </c>
+      <c r="D31" s="19">
+        <v>-0.43977739999999998</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.4993689</v>
+      </c>
+      <c r="F31" s="21">
+        <v>-0.20441200000000001</v>
+      </c>
+      <c r="G31" s="19">
+        <v>-0.1069938</v>
+      </c>
+      <c r="H31" s="19">
+        <v>-0.82726310000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="19">
+        <v>-7.1134025000000003</v>
+      </c>
+      <c r="C32" s="19">
+        <v>-2.9255206999999999</v>
+      </c>
+      <c r="D32" s="19">
+        <v>-0.2126586</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.50142310000000001</v>
+      </c>
+      <c r="F32" s="19">
+        <v>-0.35126360000000001</v>
+      </c>
+      <c r="G32" s="19">
+        <v>-0.147531</v>
+      </c>
+      <c r="H32" s="19">
+        <v>-0.77057719999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="E33" s="66"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B27:H27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -1272,10 +2657,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="46" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3752,18 +5137,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892655B2-6FB3-1B45-B9BF-28A8708E70F6}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3773,55 +5158,54 @@
     <col min="3" max="3" width="10.83203125" style="18"/>
     <col min="4" max="4" width="10.83203125" style="20"/>
     <col min="5" max="5" width="27.83203125" style="24" customWidth="1"/>
-    <col min="6" max="12" width="10.83203125" style="17"/>
-    <col min="13" max="13" width="10.83203125" style="51"/>
-    <col min="14" max="16" width="10.83203125" style="17"/>
-    <col min="17" max="17" width="5.5" style="17" customWidth="1"/>
-    <col min="18" max="20" width="10.83203125" style="17"/>
-    <col min="21" max="24" width="16.1640625" style="24" customWidth="1"/>
-    <col min="25" max="26" width="10.83203125" style="24"/>
-    <col min="27" max="27" width="10.83203125" style="56"/>
-    <col min="28" max="28" width="10.83203125" style="16"/>
-    <col min="29" max="29" width="18.1640625" style="62" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="17"/>
+    <col min="6" max="17" width="10.83203125" style="17"/>
+    <col min="18" max="18" width="5.5" style="17" customWidth="1"/>
+    <col min="19" max="21" width="10.83203125" style="17"/>
+    <col min="22" max="25" width="16.1640625" style="24" customWidth="1"/>
+    <col min="26" max="27" width="10.83203125" style="24"/>
+    <col min="28" max="28" width="10.83203125" style="45"/>
+    <col min="29" max="29" width="10.83203125" style="16"/>
+    <col min="30" max="30" width="18.1640625" style="51" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="41" customHeight="1">
+    <row r="1" spans="1:31" s="7" customFormat="1" ht="41" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="5"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="38" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="5"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="58" t="s">
+      <c r="T1" s="69"/>
+      <c r="U1" s="5"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="7" customFormat="1" ht="68" customHeight="1">
+    <row r="2" spans="1:31" s="7" customFormat="1" ht="68" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -3856,52 +5240,55 @@
       <c r="L2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="48"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="Q2" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="V2" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="W2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="X2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="Y2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Z2" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="AA2" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" s="67" t="s">
+      <c r="AB2" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AC2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="59"/>
-    </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" ht="40" customHeight="1">
+      <c r="AD2" s="48"/>
+    </row>
+    <row r="3" spans="1:31" s="8" customFormat="1" ht="40" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -3920,24 +5307,25 @@
       <c r="L3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="R3" s="41">
+      <c r="Q3" s="9"/>
+      <c r="S3" s="38">
         <v>10000</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="60"/>
-    </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" ht="40" hidden="1" customHeight="1">
+      <c r="U3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="49"/>
+    </row>
+    <row r="4" spans="1:31" s="8" customFormat="1" ht="40" hidden="1" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
@@ -3948,17 +5336,18 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="49"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="Q4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="60"/>
-    </row>
-    <row r="5" spans="1:30" s="13" customFormat="1" ht="34" hidden="1">
+      <c r="U4" s="9"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="49"/>
+    </row>
+    <row r="5" spans="1:31" s="13" customFormat="1" ht="34" hidden="1">
       <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
@@ -3993,26 +5382,27 @@
       <c r="L5" s="19">
         <v>-1.44312258</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
-      <c r="Q5" s="16"/>
-      <c r="S5" s="12">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="16"/>
+      <c r="T5" s="12">
         <v>-6.8361689999999996E-3</v>
       </c>
-      <c r="T5" s="12">
+      <c r="U5" s="12">
         <v>7.4320150000000001E-2</v>
       </c>
-      <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="61"/>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="Y5" s="16"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="50"/>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="30" t="s">
         <v>102</v>
       </c>
@@ -4026,20 +5416,21 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="50"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="R6" s="19"/>
       <c r="T6" s="19"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-    </row>
-    <row r="7" spans="1:30" ht="70" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="U6" s="19"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+    </row>
+    <row r="7" spans="1:31" ht="70" customHeight="1">
+      <c r="A7" s="67" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -4064,7 +5455,7 @@
       <c r="H7" s="26">
         <v>-1.7639506</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="66">
         <v>-0.54773070000000001</v>
       </c>
       <c r="J7" s="26">
@@ -4076,59 +5467,63 @@
       <c r="L7" s="19">
         <v>-0.36013289999999998</v>
       </c>
-      <c r="M7" s="50"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="19">
+        <f>$G7+1.5*$I7</f>
+        <v>-3.0567885500000003</v>
+      </c>
+      <c r="O7" s="19">
         <f>$G7+2*$I7</f>
         <v>-3.3306539000000002</v>
       </c>
-      <c r="O7" s="19">
+      <c r="P7" s="19">
         <f>$G7+2.5*$I7</f>
         <v>-3.6045192500000001</v>
       </c>
-      <c r="P7" s="19">
+      <c r="Q7" s="19">
         <f>$G7+3*$I7</f>
         <v>-3.8783846000000004</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="40">
+      <c r="R7" s="19"/>
+      <c r="S7" s="37">
         <v>5.2205880000000002</v>
       </c>
-      <c r="S7" s="40">
+      <c r="T7" s="37">
         <v>-0.61889680000000002</v>
       </c>
-      <c r="T7" s="40">
+      <c r="U7" s="37">
         <v>0.34316560000000002</v>
       </c>
-      <c r="U7" s="46">
+      <c r="V7" s="43">
         <v>0.6323529</v>
       </c>
-      <c r="V7" s="46">
+      <c r="W7" s="43">
         <v>7.3529410000000003E-2</v>
       </c>
-      <c r="W7" s="46">
+      <c r="X7" s="43">
         <v>0.1911765</v>
       </c>
-      <c r="X7" s="46">
+      <c r="Y7" s="43">
         <v>8.8235289999999994E-2</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Z7" s="37">
         <v>3.1617649999999999</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="AA7" s="37">
         <v>3.2352940000000001</v>
       </c>
-      <c r="AA7" s="69">
+      <c r="AB7" s="58">
         <v>17279.41</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AC7" s="37">
         <v>1.6</v>
       </c>
-      <c r="AC7" s="61" t="s">
+      <c r="AD7" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="65" customHeight="1">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:31" ht="65" customHeight="1">
+      <c r="A8" s="67"/>
       <c r="B8" s="12" t="s">
         <v>60</v>
       </c>
@@ -4151,7 +5546,7 @@
       <c r="H8" s="19">
         <v>0.30180360000000001</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="19">
         <v>0.36792799999999998</v>
       </c>
       <c r="J8" s="19">
@@ -4163,60 +5558,64 @@
       <c r="L8" s="19">
         <v>-0.74670210000000004</v>
       </c>
-      <c r="M8" s="50"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="19">
-        <f t="shared" ref="N8:N9" si="1">$G8+2*$I8</f>
+        <f t="shared" ref="N8:N14" si="1">$G8+1.5*$I8</f>
+        <v>4.4778899999999955E-2</v>
+      </c>
+      <c r="O8" s="19">
+        <f t="shared" ref="O8:O9" si="2">$G8+2*$I8</f>
         <v>0.22874289999999997</v>
       </c>
-      <c r="O8" s="19">
-        <f t="shared" ref="O8:O9" si="2">$G8+2.5*$I8</f>
+      <c r="P8" s="19">
+        <f t="shared" ref="P8:P9" si="3">$G8+2.5*$I8</f>
         <v>0.41270689999999999</v>
       </c>
-      <c r="P8" s="19">
+      <c r="Q8" s="19">
         <f>$G8+3*$I8</f>
         <v>0.59667089999999989</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="40">
+      <c r="R8" s="19"/>
+      <c r="S8" s="37">
         <v>6.8511449999999998</v>
       </c>
-      <c r="S8" s="40">
+      <c r="T8" s="37">
         <v>0.59802940000000004</v>
       </c>
-      <c r="T8" s="40">
+      <c r="U8" s="37">
         <v>-0.42628969999999999</v>
       </c>
-      <c r="U8" s="46">
+      <c r="V8" s="43">
         <v>0.73282440000000004</v>
       </c>
-      <c r="V8" s="46">
+      <c r="W8" s="43">
         <v>0.22900762999999999</v>
       </c>
-      <c r="W8" s="46">
+      <c r="X8" s="43">
         <v>0.41984729999999998</v>
       </c>
-      <c r="X8" s="46">
+      <c r="Y8" s="43">
         <v>0.41984733000000002</v>
       </c>
-      <c r="Y8" s="40">
+      <c r="Z8" s="37">
         <v>3.534351</v>
       </c>
-      <c r="Z8" s="40">
+      <c r="AA8" s="37">
         <v>3.0152670000000001</v>
       </c>
-      <c r="AA8" s="69">
+      <c r="AB8" s="58">
         <v>22442.75</v>
       </c>
-      <c r="AB8" s="40">
+      <c r="AC8" s="37">
         <v>2.69</v>
       </c>
-      <c r="AC8" s="61" t="s">
+      <c r="AD8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="AD8" s="37"/>
-    </row>
-    <row r="9" spans="1:30" ht="91" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="AE8" s="68"/>
+    </row>
+    <row r="9" spans="1:31" ht="78" customHeight="1">
+      <c r="A9" s="67"/>
       <c r="B9" s="12" t="s">
         <v>61</v>
       </c>
@@ -4239,7 +5638,7 @@
       <c r="H9" s="19">
         <v>-0.20266600000000001</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="65">
         <v>0.73443970000000003</v>
       </c>
       <c r="J9" s="19">
@@ -4251,84 +5650,92 @@
       <c r="L9" s="19">
         <v>-1.1026009000000001</v>
       </c>
-      <c r="M9" s="50"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="19">
         <f t="shared" si="1"/>
-        <v>-2.8801209000000001</v>
+        <v>-3.2473407500000002</v>
       </c>
       <c r="O9" s="19">
         <f t="shared" si="2"/>
+        <v>-2.8801209000000001</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="3"/>
         <v>-2.51290105</v>
       </c>
-      <c r="P9" s="19">
+      <c r="Q9" s="19">
         <f>$G9+3*$I9</f>
         <v>-2.1456812000000003</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="40">
+      <c r="R9" s="19"/>
+      <c r="S9" s="37">
         <v>7.8168319999999998</v>
       </c>
-      <c r="S9" s="40">
+      <c r="T9" s="37">
         <v>-0.21350160000000001</v>
       </c>
-      <c r="T9" s="40">
+      <c r="U9" s="37">
         <v>0.43090149999999999</v>
       </c>
-      <c r="U9" s="46">
+      <c r="V9" s="43">
         <v>0.62376240000000005</v>
       </c>
-      <c r="V9" s="46">
+      <c r="W9" s="43">
         <v>0.23762375999999999</v>
       </c>
-      <c r="W9" s="46">
+      <c r="X9" s="43">
         <v>0.41584159999999998</v>
       </c>
-      <c r="X9" s="46">
+      <c r="Y9" s="43">
         <v>0.25742574000000001</v>
       </c>
-      <c r="Y9" s="40">
+      <c r="Z9" s="37">
         <v>3.4356439999999999</v>
       </c>
-      <c r="Z9" s="40">
+      <c r="AA9" s="37">
         <v>3.247525</v>
       </c>
-      <c r="AA9" s="69">
+      <c r="AB9" s="58">
         <v>21089.11</v>
       </c>
-      <c r="AB9" s="40">
+      <c r="AC9" s="37">
         <v>1.76</v>
       </c>
-      <c r="AC9" s="61" t="s">
+      <c r="AD9" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="AD9" s="37"/>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE9" s="68"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="30" t="s">
         <v>103</v>
       </c>
       <c r="D11" s="20">
         <v>366</v>
       </c>
-      <c r="S11" s="27"/>
+      <c r="N11" s="19"/>
       <c r="T11" s="27"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="42"/>
-    </row>
-    <row r="12" spans="1:30" ht="32">
-      <c r="A12" s="36" t="s">
+      <c r="U11" s="27"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="39"/>
+    </row>
+    <row r="12" spans="1:31" ht="32">
+      <c r="A12" s="67" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="63">
         <v>0.25390000000000001</v>
       </c>
       <c r="D12" s="20">
@@ -4341,84 +5748,88 @@
       <c r="F12" s="34">
         <v>-5.6891949999999998</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="37">
         <v>-5.1104609999999999</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="37">
         <v>-1.8663228000000001</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="64">
         <v>0.98354249999999999</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="37">
         <v>-0.29241149999999999</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="37">
         <v>-0.15133083</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="37">
         <v>-0.99440300000000004</v>
       </c>
-      <c r="M12" s="52"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="19">
+        <f t="shared" si="1"/>
+        <v>-3.6351472500000002</v>
+      </c>
+      <c r="O12" s="19">
         <f>$G12+2*$I12</f>
         <v>-3.1433759999999999</v>
       </c>
-      <c r="O12" s="19">
+      <c r="P12" s="19">
         <f>$G12+2.5*$I12</f>
         <v>-2.6516047499999997</v>
       </c>
-      <c r="P12" s="19">
+      <c r="Q12" s="19">
         <f>$G12+3*$I12</f>
         <v>-2.1598335</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="R12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="40">
+      <c r="S12" s="37">
         <v>6.9333330000000002</v>
       </c>
-      <c r="S12" s="40">
+      <c r="T12" s="37">
         <v>-0.28374310000000003</v>
       </c>
-      <c r="T12" s="40">
+      <c r="U12" s="37">
         <v>0.31808720000000001</v>
       </c>
-      <c r="U12" s="35">
+      <c r="V12" s="35">
         <v>0.77777779999999996</v>
       </c>
-      <c r="V12" s="35">
+      <c r="W12" s="35">
         <v>0.13333329999999999</v>
       </c>
-      <c r="W12" s="35">
+      <c r="X12" s="35">
         <v>0.38888889999999998</v>
       </c>
-      <c r="X12" s="35">
+      <c r="Y12" s="35">
         <v>0.15555559999999999</v>
       </c>
-      <c r="Y12" s="40">
+      <c r="Z12" s="37">
         <v>3.1222219999999998</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="AA12" s="37">
         <v>3.4666670000000002</v>
       </c>
-      <c r="AA12" s="69">
+      <c r="AB12" s="58">
         <v>24055.56</v>
       </c>
-      <c r="AB12" s="42">
+      <c r="AC12" s="39">
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="48">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:31" ht="48">
+      <c r="A13" s="67"/>
       <c r="B13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="63">
         <v>0.36349999999999999</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" ref="D13:D14" si="3">$D$11*C13</f>
+        <f t="shared" ref="D13:D14" si="4">$D$11*C13</f>
         <v>133.041</v>
       </c>
       <c r="E13" s="16" t="s">
@@ -4427,201 +5838,209 @@
       <c r="F13" s="34">
         <v>-6.8943029999999998</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="37">
         <v>0.30677260000000001</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="37">
         <v>1.1824391999999999</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="37">
         <v>0.2174354</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="37">
         <v>-0.24622179999999999</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="37">
         <v>-9.234444E-2</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="37">
         <v>-1.0680924999999999</v>
       </c>
-      <c r="M13" s="52"/>
+      <c r="M13" s="27"/>
       <c r="N13" s="19">
-        <f t="shared" ref="N13:N14" si="4">$G13+2*$I13</f>
+        <f t="shared" si="1"/>
+        <v>0.63292569999999992</v>
+      </c>
+      <c r="O13" s="19">
+        <f t="shared" ref="O13:O14" si="5">$G13+2*$I13</f>
         <v>0.74164340000000006</v>
       </c>
-      <c r="O13" s="19">
-        <f t="shared" ref="O13:O14" si="5">$G13+2.5*$I13</f>
+      <c r="P13" s="19">
+        <f t="shared" ref="P13:P14" si="6">$G13+2.5*$I13</f>
         <v>0.85036109999999998</v>
       </c>
-      <c r="P13" s="19">
+      <c r="Q13" s="19">
         <f>$G13+3*$I13</f>
         <v>0.9590787999999999</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="40">
+      <c r="R13" s="27"/>
+      <c r="S13" s="37">
         <v>8.9765619999999995</v>
       </c>
-      <c r="S13" s="40">
+      <c r="T13" s="37">
         <v>0.74222440000000001</v>
       </c>
-      <c r="T13" s="40">
+      <c r="U13" s="37">
         <v>-0.17751700000000001</v>
       </c>
-      <c r="U13" s="35">
+      <c r="V13" s="35">
         <v>0.7734375</v>
       </c>
-      <c r="V13" s="35">
+      <c r="W13" s="35">
         <v>0.328125</v>
       </c>
-      <c r="W13" s="35">
+      <c r="X13" s="35">
         <v>0.4921875</v>
       </c>
-      <c r="X13" s="35">
+      <c r="Y13" s="35">
         <v>0.390625</v>
       </c>
-      <c r="Y13" s="40">
+      <c r="Z13" s="37">
         <v>3.8188979999999999</v>
       </c>
-      <c r="Z13" s="40">
+      <c r="AA13" s="37">
         <v>3.1259839999999999</v>
       </c>
-      <c r="AA13" s="69">
+      <c r="AB13" s="58">
         <v>28671.88</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AC13" s="16">
         <v>3</v>
       </c>
-      <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" ht="17">
-      <c r="A14" s="36"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:31" ht="17">
+      <c r="A14" s="67"/>
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="63">
         <v>0.3826</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140.0316</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="62" t="s">
         <v>111</v>
       </c>
       <c r="F14" s="34">
         <v>-7.8111259999999998</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="37">
         <v>-3.8320029</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="37">
         <v>-0.36974020000000002</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="37">
         <v>0.1894488</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="37">
         <v>-0.41502339999999999</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="37">
         <v>-0.14343164</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="37">
         <v>-0.22289590000000001</v>
       </c>
       <c r="N14" s="19">
-        <f t="shared" si="4"/>
-        <v>-3.4531052999999998</v>
+        <f t="shared" si="1"/>
+        <v>-3.5478296999999999</v>
       </c>
       <c r="O14" s="19">
         <f t="shared" si="5"/>
+        <v>-3.4531052999999998</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="6"/>
         <v>-3.3583809000000002</v>
       </c>
-      <c r="P14" s="19">
+      <c r="Q14" s="19">
         <f>$G14+3*$I14</f>
         <v>-3.2636564999999997</v>
       </c>
-      <c r="R14" s="40">
+      <c r="S14" s="37">
         <v>7.8716220000000003</v>
       </c>
-      <c r="S14" s="40">
+      <c r="T14" s="37">
         <v>-0.27642739999999999</v>
       </c>
-      <c r="T14" s="40">
+      <c r="U14" s="37">
         <v>0.1773293</v>
       </c>
-      <c r="U14" s="35">
+      <c r="V14" s="35">
         <v>0.55405409999999999</v>
       </c>
-      <c r="V14" s="35">
+      <c r="W14" s="35">
         <v>0.14189189999999999</v>
       </c>
-      <c r="W14" s="35">
+      <c r="X14" s="35">
         <v>0.32432430000000001</v>
       </c>
-      <c r="X14" s="35">
+      <c r="Y14" s="35">
         <v>0.26351350000000001</v>
       </c>
-      <c r="Y14" s="40">
+      <c r="Z14" s="37">
         <v>3.2432430000000001</v>
       </c>
-      <c r="Z14" s="40">
+      <c r="AA14" s="37">
         <v>3.1418919999999999</v>
       </c>
-      <c r="AA14" s="69">
+      <c r="AB14" s="58">
         <v>27432.43</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AC14" s="16">
         <v>1.97</v>
       </c>
-      <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:31">
       <c r="H15" s="28"/>
       <c r="I15" s="29"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="34"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="13"/>
+      <c r="U15" s="34"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
-      <c r="Y15" s="16"/>
+      <c r="Y15" s="13"/>
       <c r="Z15" s="16"/>
-      <c r="AA15" s="68"/>
-      <c r="AC15" s="2"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="57"/>
       <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" s="2"/>
+    </row>
+    <row r="16" spans="1:31">
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="53"/>
       <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="8:30">
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="17" spans="8:31">
       <c r="H17" s="28"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="33"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
@@ -4630,22 +6049,23 @@
       <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="2"/>
-    </row>
-    <row r="18" spans="8:30">
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" spans="8:31">
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="33"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
@@ -4654,53 +6074,54 @@
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="2"/>
-    </row>
-    <row r="19" spans="8:30">
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="2"/>
+    </row>
+    <row r="19" spans="8:31">
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
-      <c r="R19" s="34"/>
       <c r="S19" s="34"/>
-      <c r="W19" s="34"/>
+      <c r="T19" s="34"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
-      <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="8:30">
+      <c r="Z19" s="34"/>
+      <c r="AE19" s="2"/>
+    </row>
+    <row r="20" spans="8:31">
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
-      <c r="R20" s="34"/>
       <c r="S20" s="34"/>
-      <c r="W20" s="34"/>
+      <c r="T20" s="34"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
-      <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="8:30">
+      <c r="Z20" s="34"/>
+      <c r="AE20" s="2"/>
+    </row>
+    <row r="21" spans="8:31">
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
-      <c r="R21" s="34"/>
       <c r="S21" s="34"/>
-      <c r="W21" s="34"/>
+      <c r="T21" s="34"/>
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
-      <c r="AD21" s="2"/>
-    </row>
-    <row r="22" spans="8:30">
+      <c r="Z21" s="34"/>
+      <c r="AE21" s="2"/>
+    </row>
+    <row r="22" spans="8:31">
       <c r="I22" s="34"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="54"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="34"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
@@ -4708,14 +6129,14 @@
       <c r="X22" s="32"/>
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="2"/>
-    </row>
-    <row r="23" spans="8:30">
-      <c r="R23" s="2"/>
-      <c r="S23" s="34"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="2"/>
+    </row>
+    <row r="23" spans="8:31">
+      <c r="S23" s="2"/>
       <c r="T23" s="34"/>
       <c r="U23" s="34"/>
       <c r="V23" s="34"/>
@@ -4723,51 +6144,52 @@
       <c r="X23" s="34"/>
       <c r="Y23" s="34"/>
       <c r="Z23" s="34"/>
-      <c r="AA23" s="68"/>
-      <c r="AC23" s="2"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="57"/>
       <c r="AD23" s="2"/>
-    </row>
-    <row r="24" spans="8:30">
-      <c r="R24" s="2"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="32"/>
+      <c r="AE23" s="2"/>
+    </row>
+    <row r="24" spans="8:31">
+      <c r="S24" s="2"/>
+      <c r="T24" s="34"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
       <c r="X24" s="32"/>
       <c r="Y24" s="32"/>
       <c r="Z24" s="32"/>
-      <c r="AA24" s="68"/>
-      <c r="AC24" s="2"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="57"/>
       <c r="AD24" s="2"/>
-    </row>
-    <row r="25" spans="8:30">
-      <c r="R25" s="2"/>
+      <c r="AE24" s="2"/>
+    </row>
+    <row r="25" spans="8:31">
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="13"/>
+      <c r="U25" s="2"/>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="68"/>
-      <c r="AC25" s="2"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="57"/>
       <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
     <mergeCell ref="F1:L1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87241B1-EEA4-9644-98C8-8514E386A931}">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/code/output/model_output/apollo/vehicle/0_vehicle_model_combine_output.xlsx
+++ b/code/output/model_output/apollo/vehicle/0_vehicle_model_combine_output.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/model_output/apollo/vehicle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1069BDA4-77DF-6345-BCC6-E2323D069B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE0C88-378C-6740-B561-BEE3FAFB42ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="3300" windowWidth="28880" windowHeight="15340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="960" windowWidth="28880" windowHeight="16760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pref_1class" sheetId="4" r:id="rId1"/>
-    <sheet name="wtp_1class" sheetId="5" r:id="rId2"/>
+    <sheet name="pref_1class" sheetId="6" r:id="rId1"/>
+    <sheet name="wtp_1class" sheetId="7" r:id="rId2"/>
     <sheet name="coef_fit" sheetId="1" r:id="rId3"/>
     <sheet name="WTP" sheetId="2" r:id="rId4"/>
-    <sheet name="Factor_analysis" sheetId="3" r:id="rId5"/>
+    <sheet name="car_suv_combined" sheetId="8" r:id="rId5"/>
+    <sheet name="WTP_combined" sheetId="9" r:id="rId6"/>
+    <sheet name="Factor_analysis" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="127">
   <si>
     <t>b_no_choice_a</t>
   </si>
@@ -478,6 +480,21 @@
   </si>
   <si>
     <t>scale</t>
+  </si>
+  <si>
+    <t>gamma_suv_a</t>
+  </si>
+  <si>
+    <t>gamma_suv_b</t>
+  </si>
+  <si>
+    <t>gamma_suv_c</t>
+  </si>
+  <si>
+    <t>vehicle_typesuv_share_yes</t>
+  </si>
+  <si>
+    <t>Inactive Indicators (included in the model)</t>
   </si>
 </sst>
 </file>
@@ -684,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -824,18 +841,33 @@
     <xf numFmtId="2" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,25 +949,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>128524</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="7772400" cy="7202424"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06CA140-5C37-4F37-93A1-380A1A75C725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6245DD20-0C5A-F645-9476-B20C4C6D997F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -951,7 +978,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11125200" y="190500"/>
+          <a:off x="12001500" y="342900"/>
           <a:ext cx="7772400" cy="7202424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -960,26 +987,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>113532</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="7772400" cy="2399532"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD834614-C959-3A97-7E2E-51ACC122B4D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12112138-FC5D-B843-AEAF-4BA6FFD6656C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,8 +1017,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11125200" y="7835900"/>
+          <a:off x="10731500" y="7429500"/>
           <a:ext cx="7772400" cy="2399532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A3B757-2BE8-957C-8323-4580E5B42EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8597900"/>
+          <a:ext cx="7772400" cy="5921828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86135CBF-5014-43EE-C64D-74D418724AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14884400"/>
+          <a:ext cx="5702300" cy="8140700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C2B23B-8AEE-CFDE-C718-6EC19604A5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23075900"/>
+          <a:ext cx="7645400" cy="6184900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,11 +1527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723A627A-5459-5940-997D-EC9F00CC1B19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5AC401-21AB-DC45-B3FA-02B41EDD9230}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I10"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1386,12 +1540,12 @@
     <col min="2" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:9" s="26" customFormat="1">
+      <c r="A1" s="67" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1">
+    <row r="2" spans="1:9" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B2" s="26" t="s">
         <v>83</v>
       </c>
@@ -1414,7 +1568,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" s="26" customFormat="1">
       <c r="A3" s="26" t="s">
         <v>113</v>
       </c>
@@ -1439,8 +1593,12 @@
       <c r="H3" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="26">
+        <f>B3/-B$10</f>
+        <v>-5.8350257970086181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="26" customFormat="1">
       <c r="A4" s="26" t="s">
         <v>114</v>
       </c>
@@ -1466,11 +1624,11 @@
         <v>8.8817841970012504E-16</v>
       </c>
       <c r="I4" s="26">
-        <f>B4/B$10</f>
-        <v>2.4819885390411764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <f>B4/-B$10</f>
+        <v>-2.4819885390411764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="26" customFormat="1">
       <c r="A5" s="26" t="s">
         <v>115</v>
       </c>
@@ -1496,11 +1654,11 @@
         <v>5.7095407294838196E-4</v>
       </c>
       <c r="I5" s="26">
-        <f t="shared" ref="I5:I10" si="0">B5/B$10</f>
-        <v>0.43977736997649758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <f>B5/-B$10</f>
+        <v>-0.43977736997649758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="26" customFormat="1">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -1526,11 +1684,11 @@
         <v>3.4075240688706799E-3</v>
       </c>
       <c r="I6" s="26">
-        <f t="shared" si="0"/>
-        <v>-0.49936891019609503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <f>B6/-B$10</f>
+        <v>0.49936891019609503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="26" customFormat="1">
       <c r="A7" s="26" t="s">
         <v>117</v>
       </c>
@@ -1556,11 +1714,11 @@
         <v>2.4897381933897102E-9</v>
       </c>
       <c r="I7" s="26">
-        <f t="shared" si="0"/>
-        <v>0.20441204250829936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <f>B7/-B$10</f>
+        <v>-0.20441204250829936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="26" customFormat="1">
       <c r="A8" s="26" t="s">
         <v>118</v>
       </c>
@@ -1586,11 +1744,11 @@
         <v>1.48143008971147E-9</v>
       </c>
       <c r="I8" s="26">
-        <f t="shared" si="0"/>
-        <v>0.10699380218909969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <f>B8/-B$10</f>
+        <v>-0.10699380218909969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="26" customFormat="1">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -1616,11 +1774,11 @@
         <v>3.12454950801566E-10</v>
       </c>
       <c r="I9" s="26">
-        <f t="shared" si="0"/>
-        <v>0.82726307166411928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <f>B9/-B$10</f>
+        <v>-0.82726307166411928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="26" customFormat="1">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -1645,17 +1803,13 @@
       <c r="H10" s="26">
         <v>0</v>
       </c>
-      <c r="I10" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="70" t="s">
+    </row>
+    <row r="13" spans="1:9" s="26" customFormat="1">
+      <c r="A13" s="67" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" s="26" customFormat="1">
       <c r="B14" s="26" t="s">
         <v>83</v>
       </c>
@@ -1678,7 +1832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" s="26" customFormat="1">
       <c r="A15" s="26" t="s">
         <v>113</v>
       </c>
@@ -1703,8 +1857,12 @@
       <c r="H15" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="26">
+        <f>B15/-B$22</f>
+        <v>-7.1134025162614769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="26" customFormat="1">
       <c r="A16" s="26" t="s">
         <v>114</v>
       </c>
@@ -1729,8 +1887,12 @@
       <c r="H16" s="26">
         <v>1.8518970801295601E-9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="26">
+        <f>B16/-B$22</f>
+        <v>-2.9255206679995869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="26" customFormat="1">
       <c r="A17" s="26" t="s">
         <v>115</v>
       </c>
@@ -1755,8 +1917,12 @@
       <c r="H17" s="26">
         <v>0.12886505514252899</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="26">
+        <f>B17/-B$22</f>
+        <v>-0.21265862055045123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="26" customFormat="1">
       <c r="A18" s="26" t="s">
         <v>116</v>
       </c>
@@ -1781,8 +1947,12 @@
       <c r="H18" s="26">
         <v>2.9186174621336201E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="26">
+        <f>B18/-B$22</f>
+        <v>0.50142311692787622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="26" customFormat="1">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -1807,8 +1977,12 @@
       <c r="H19" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="26">
+        <f>B19/-B$22</f>
+        <v>-0.35126356891015237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="26" customFormat="1">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -1833,8 +2007,12 @@
       <c r="H20" s="26">
         <v>6.5747407518301803E-12</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="26">
+        <f>B20/-B$22</f>
+        <v>-0.14753098306707865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="26" customFormat="1">
       <c r="A21" s="26" t="s">
         <v>119</v>
       </c>
@@ -1859,8 +2037,12 @@
       <c r="H21" s="26">
         <v>4.4832286039131501E-7</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="26">
+        <f>B21/-B$22</f>
+        <v>-0.77057717746683796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="26" customFormat="1">
       <c r="A22" s="26" t="s">
         <v>120</v>
       </c>
@@ -1886,18 +2068,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16">
-      <c r="B27" s="69" t="s">
+    <row r="27" spans="1:9" s="26" customFormat="1" ht="16">
+      <c r="B27" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="28" spans="1:8" ht="17">
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+    </row>
+    <row r="28" spans="1:9" s="26" customFormat="1" ht="17">
       <c r="B28" s="6" t="s">
         <v>42</v>
       </c>
@@ -1920,7 +2102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="42">
+    <row r="29" spans="1:9" s="26" customFormat="1" ht="42">
       <c r="B29" s="9"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -1937,7 +2119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9" s="26" customFormat="1">
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -1946,12 +2128,12 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:9" s="26" customFormat="1" ht="16">
       <c r="A31" s="26" t="s">
         <v>102</v>
       </c>
       <c r="B31" s="26">
-        <v>-5.0045006659382203</v>
+        <v>-5.8350257970086181</v>
       </c>
       <c r="C31" s="19">
         <v>-2.4819884999999999</v>
@@ -1972,12 +2154,12 @@
         <v>-0.82726310000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9" s="26" customFormat="1">
       <c r="A32" s="26" t="s">
         <v>103</v>
       </c>
       <c r="B32" s="26">
-        <v>-4.7202260898395103</v>
+        <v>-7.1134025162614769</v>
       </c>
       <c r="C32" s="19">
         <v>-2.9255206999999999</v>
@@ -1998,12 +2180,12 @@
         <v>-0.77057719999999996</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" s="26" customFormat="1">
       <c r="E33" s="66"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" s="26" customFormat="1">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -2021,11 +2203,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC7DF6A-25E5-2845-B540-C906C026AC2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAF559C-1D3C-3348-B1FD-69C9536248D3}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2035,7 +2217,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="67" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2093,7 +2275,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="26">
-        <v>2.4819854517854898</v>
+        <v>-2.4819854517854898</v>
       </c>
       <c r="C4" s="26">
         <v>0.267472461367803</v>
@@ -2119,7 +2301,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="26">
-        <v>0.43977955300725102</v>
+        <v>-0.43977955300725102</v>
       </c>
       <c r="C5" s="26">
         <v>0.10468278127423999</v>
@@ -2145,7 +2327,7 @@
         <v>116</v>
       </c>
       <c r="B6" s="26">
-        <v>-0.499364401818649</v>
+        <v>0.499364401818649</v>
       </c>
       <c r="C6" s="26">
         <v>0.13368466865846601</v>
@@ -2171,7 +2353,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="26">
-        <v>0.20441265994548199</v>
+        <v>-0.20441265994548199</v>
       </c>
       <c r="C7" s="26">
         <v>3.1668354103407299E-2</v>
@@ -2197,7 +2379,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="26">
-        <v>0.106994006327932</v>
+        <v>-0.106994006327932</v>
       </c>
       <c r="C8" s="26">
         <v>1.8023214218642499E-2</v>
@@ -2223,7 +2405,7 @@
         <v>119</v>
       </c>
       <c r="B9" s="26">
-        <v>0.82726623838640601</v>
+        <v>-0.82726623838640601</v>
       </c>
       <c r="C9" s="26">
         <v>0.134299250169023</v>
@@ -2249,7 +2431,7 @@
         <v>121</v>
       </c>
       <c r="B10" s="26">
-        <v>-0.85766509973989902</v>
+        <v>0.85766509973989902</v>
       </c>
       <c r="C10" s="26">
         <v>5.8848269539776697E-2</v>
@@ -2271,7 +2453,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="67" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2329,7 +2511,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="26">
-        <v>2.9255105828363299</v>
+        <v>-2.9255105828363299</v>
       </c>
       <c r="C16" s="26">
         <v>0.39856921606599399</v>
@@ -2355,7 +2537,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="26">
-        <v>0.21265454764581199</v>
+        <v>-0.21265454764581199</v>
       </c>
       <c r="C17" s="26">
         <v>0.103617826357168</v>
@@ -2381,7 +2563,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="26">
-        <v>-0.50142044513103601</v>
+        <v>0.50142044513103601</v>
       </c>
       <c r="C18" s="26">
         <v>0.135753101893129</v>
@@ -2407,7 +2589,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="26">
-        <v>0.35126190362368398</v>
+        <v>-0.35126190362368398</v>
       </c>
       <c r="C19" s="26">
         <v>4.1267824027385297E-2</v>
@@ -2433,7 +2615,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="26">
-        <v>0.14753066600800199</v>
+        <v>-0.14753066600800199</v>
       </c>
       <c r="C20" s="26">
         <v>2.1387009804946899E-2</v>
@@ -2459,7 +2641,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="26">
-        <v>0.77057479161425502</v>
+        <v>-0.77057479161425502</v>
       </c>
       <c r="C21" s="26">
         <v>0.13986955411811799</v>
@@ -2485,7 +2667,7 @@
         <v>121</v>
       </c>
       <c r="B22" s="26">
-        <v>-0.66356912135207002</v>
+        <v>0.66356912135207002</v>
       </c>
       <c r="C22" s="26">
         <v>4.4810852675414799E-2</v>
@@ -2507,36 +2689,36 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
     </row>
     <row r="28" spans="1:8" ht="17">
       <c r="B28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="68" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2570,8 +2752,8 @@
       <c r="A31" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="19">
-        <v>-5.8350258000000004</v>
+      <c r="B31" s="26">
+        <v>-5.0045045150101704</v>
       </c>
       <c r="C31" s="19">
         <v>-2.4819884999999999</v>
@@ -2596,8 +2778,8 @@
       <c r="A32" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="19">
-        <v>-7.1134025000000003</v>
+      <c r="B32" s="26">
+        <v>-4.7202266861907702</v>
       </c>
       <c r="C32" s="19">
         <v>-2.9255206999999999</v>
@@ -2645,7 +2827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -5144,11 +5326,11 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:L8"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5179,25 +5361,25 @@
       <c r="E1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
       <c r="M1" s="44"/>
       <c r="N1" s="44"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="69"/>
+      <c r="T1" s="70"/>
       <c r="U1" s="5"/>
       <c r="AB1" s="55"/>
       <c r="AC1" s="52"/>
@@ -5430,7 +5612,7 @@
       <c r="Y6" s="40"/>
     </row>
     <row r="7" spans="1:31" ht="70" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="71" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -5523,7 +5705,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="65" customHeight="1">
-      <c r="A8" s="67"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="12" t="s">
         <v>60</v>
       </c>
@@ -5612,10 +5794,10 @@
       <c r="AD8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="AE8" s="68"/>
+      <c r="AE8" s="72"/>
     </row>
     <row r="9" spans="1:31" ht="78" customHeight="1">
-      <c r="A9" s="67"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="12" t="s">
         <v>61</v>
       </c>
@@ -5704,7 +5886,7 @@
       <c r="AD9" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="AE9" s="68"/>
+      <c r="AE9" s="72"/>
     </row>
     <row r="10" spans="1:31">
       <c r="N10" s="19"/>
@@ -5729,7 +5911,7 @@
       <c r="AC11" s="39"/>
     </row>
     <row r="12" spans="1:31" ht="32">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="71" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -5745,7 +5927,7 @@
       <c r="E12" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="37">
         <v>-5.6891949999999998</v>
       </c>
       <c r="G12" s="37">
@@ -5821,7 +6003,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="48">
-      <c r="A13" s="67"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="12" t="s">
         <v>60</v>
       </c>
@@ -5835,7 +6017,7 @@
       <c r="E13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="37">
         <v>-6.8943029999999998</v>
       </c>
       <c r="G13" s="37">
@@ -5910,7 +6092,7 @@
       <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="17">
-      <c r="A14" s="67"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -5924,7 +6106,7 @@
       <c r="E14" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="37">
         <v>-7.8111259999999998</v>
       </c>
       <c r="G14" s="37">
@@ -6190,6 +6372,2044 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519C11FF-7B8B-444D-A4F9-FC7EAF37751C}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26">
+        <v>-4.8950722765340604</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0.41181728040910398</v>
+      </c>
+      <c r="D2" s="26">
+        <v>-11.886514989539201</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0.520925741995795</v>
+      </c>
+      <c r="G2" s="26">
+        <v>-9.3968715344721296</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26">
+        <v>-4.4952248065259397</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0.51161419689569299</v>
+      </c>
+      <c r="D3" s="26">
+        <v>-8.7863566605490799</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.77236589642945197</v>
+      </c>
+      <c r="G3" s="26">
+        <v>-5.8200715843446602</v>
+      </c>
+      <c r="H3" s="26">
+        <v>5.8822429149785202E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26">
+        <v>-1.95535170641955</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.19387051861935301</v>
+      </c>
+      <c r="D4" s="26">
+        <v>-10.0858641135566</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.39182892838977701</v>
+      </c>
+      <c r="G4" s="26">
+        <v>-4.9903199196013404</v>
+      </c>
+      <c r="H4" s="26">
+        <v>6.0279373914617896E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.61498911587152605</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.2187611912328</v>
+      </c>
+      <c r="D5" s="26">
+        <v>2.8112349928514999</v>
+      </c>
+      <c r="E5" s="26">
+        <v>4.9351726849908902E-3</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.29352901344728899</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2.0951561436769701</v>
+      </c>
+      <c r="H5" s="26">
+        <v>3.6157114420322503E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26">
+        <v>-0.24592847586505701</v>
+      </c>
+      <c r="C6" s="26">
+        <v>4.5818795058808801E-2</v>
+      </c>
+      <c r="D6" s="26">
+        <v>-5.3674147377600399</v>
+      </c>
+      <c r="E6" s="26">
+        <v>7.9873245795170105E-8</v>
+      </c>
+      <c r="F6" s="26">
+        <v>5.7906554432246703E-2</v>
+      </c>
+      <c r="G6" s="26">
+        <v>-4.2469885883609999</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2.1666299047762301E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26">
+        <v>-6.2829971537318202E-2</v>
+      </c>
+      <c r="C7" s="26">
+        <v>2.4281758934151E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>-2.5875379006811201</v>
+      </c>
+      <c r="E7" s="26">
+        <v>9.6664560821035899E-3</v>
+      </c>
+      <c r="F7" s="26">
+        <v>2.5307808871626501E-2</v>
+      </c>
+      <c r="G7" s="26">
+        <v>-2.4826318175556898</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1.30415805791173E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26">
+        <v>-0.75866542078266497</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.17449598843716799</v>
+      </c>
+      <c r="D8" s="26">
+        <v>-4.3477527912101204</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1.3753950248274201E-5</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.21241652318008</v>
+      </c>
+      <c r="G8" s="26">
+        <v>-3.5715932519029701</v>
+      </c>
+      <c r="H8" s="26">
+        <v>3.5481616786991999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26">
+        <v>-0.88658000453708996</v>
+      </c>
+      <c r="C9" s="26">
+        <v>9.1752441863048206E-2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>-9.6627401574817906</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.14701144134942401</v>
+      </c>
+      <c r="G9" s="26">
+        <v>-6.0306871111468201</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1.63264024521936E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26">
+        <v>-5.5539596062248702</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.35590222480057698</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-15.605296115631001</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.59500498268621005</v>
+      </c>
+      <c r="G10" s="26">
+        <v>-9.3343077248714206</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26">
+        <v>-0.36558291250360297</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.216615361420847</v>
+      </c>
+      <c r="D11" s="26">
+        <v>-1.68770538758485</v>
+      </c>
+      <c r="E11" s="26">
+        <v>9.1467797081830102E-2</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.30800952745979099</v>
+      </c>
+      <c r="G11" s="26">
+        <v>-1.1869207927385499</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.23525886487537301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.62895260249710305</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.10508914350280101</v>
+      </c>
+      <c r="D12" s="26">
+        <v>5.9849436538641099</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2.1646477943448901E-9</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.13299217315852699</v>
+      </c>
+      <c r="G12" s="26">
+        <v>4.7292452447362496</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2.2535603312334699E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26">
+        <v>0.32901706984547102</v>
+      </c>
+      <c r="C13" s="26">
+        <v>8.4448926664104002E-2</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3.89604797647858</v>
+      </c>
+      <c r="E13" s="26">
+        <v>9.7775029023860997E-5</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0.104126804605656</v>
+      </c>
+      <c r="G13" s="26">
+        <v>3.1597730391469101</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1.57892081157152E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="26">
+        <v>-0.16627410539176599</v>
+      </c>
+      <c r="C14" s="26">
+        <v>2.9513702262270802E-2</v>
+      </c>
+      <c r="D14" s="26">
+        <v>-5.6337935483046797</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1.76288044162476E-8</v>
+      </c>
+      <c r="F14" s="26">
+        <v>3.8813101359966802E-2</v>
+      </c>
+      <c r="G14" s="26">
+        <v>-4.2839685458185901</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1.83588878510665E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="26">
+        <v>-8.38859716585591E-2</v>
+      </c>
+      <c r="C15" s="26">
+        <v>1.6249122148860401E-2</v>
+      </c>
+      <c r="D15" s="26">
+        <v>-5.1624925266773403</v>
+      </c>
+      <c r="E15" s="26">
+        <v>2.4368310658218201E-7</v>
+      </c>
+      <c r="F15" s="26">
+        <v>1.8723360415483298E-2</v>
+      </c>
+      <c r="G15" s="26">
+        <v>-4.4802839766513998</v>
+      </c>
+      <c r="H15" s="26">
+        <v>7.45437928761916E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26">
+        <v>-0.74729053863737704</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.11689965970007</v>
+      </c>
+      <c r="D16" s="26">
+        <v>-6.3925809583595496</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1.6310885975201501E-10</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.15322829008073399</v>
+      </c>
+      <c r="G16" s="26">
+        <v>-4.8769749909996198</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1.0772508720613399E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26">
+        <v>-0.915465125404335</v>
+      </c>
+      <c r="C17" s="26">
+        <v>7.0361357776191402E-2</v>
+      </c>
+      <c r="D17" s="26">
+        <v>-13.010907610911801</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.108720808935899</v>
+      </c>
+      <c r="G17" s="26">
+        <v>-8.4203303338561799</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="26">
+        <v>-10.177713675380399</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.84545783011289599</v>
+      </c>
+      <c r="D18" s="26">
+        <v>-12.038109191112801</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>1.1626214950587801</v>
+      </c>
+      <c r="G18" s="26">
+        <v>-8.7541076082253202</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="26">
+        <v>-6.1255652147593</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1.1437057103466599</v>
+      </c>
+      <c r="D19" s="26">
+        <v>-5.3558928309474201</v>
+      </c>
+      <c r="E19" s="26">
+        <v>8.5134961747002094E-8</v>
+      </c>
+      <c r="F19" s="26">
+        <v>1.69065253695815</v>
+      </c>
+      <c r="G19" s="26">
+        <v>-3.6231958257848298</v>
+      </c>
+      <c r="H19" s="26">
+        <v>2.90985350500428E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="26">
+        <v>4.0823852136191899E-2</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.16696021644571901</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0.24451245335720001</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0.80683395824829196</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.27836666338548899</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0.14665496090549501</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0.88340437010588002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="26">
+        <v>0.77358142728027601</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.34804363688390699</v>
+      </c>
+      <c r="D21" s="26">
+        <v>2.2226564295393501</v>
+      </c>
+      <c r="E21" s="26">
+        <v>2.62389759957102E-2</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.42751897087424501</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1.8094669008450299</v>
+      </c>
+      <c r="H21" s="26">
+        <v>7.0378497831290895E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="26">
+        <v>-0.45716477207131401</v>
+      </c>
+      <c r="C22" s="26">
+        <v>5.9402796894361398E-2</v>
+      </c>
+      <c r="D22" s="26">
+        <v>-7.6960142614885703</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1.3988810110276999E-14</v>
+      </c>
+      <c r="F22" s="26">
+        <v>7.7490290580100901E-2</v>
+      </c>
+      <c r="G22" s="26">
+        <v>-5.8996394083559203</v>
+      </c>
+      <c r="H22" s="26">
+        <v>3.6429685934535899E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="26">
+        <v>-0.23301656600136</v>
+      </c>
+      <c r="C23" s="26">
+        <v>3.6214845395037401E-2</v>
+      </c>
+      <c r="D23" s="26">
+        <v>-6.4342830532500699</v>
+      </c>
+      <c r="E23" s="26">
+        <v>1.2405743099464E-10</v>
+      </c>
+      <c r="F23" s="26">
+        <v>4.7269017374946501E-2</v>
+      </c>
+      <c r="G23" s="26">
+        <v>-4.92958345533249</v>
+      </c>
+      <c r="H23" s="26">
+        <v>8.2405128298823595E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="26">
+        <v>-0.66152758485364604</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.20132105390087099</v>
+      </c>
+      <c r="D24" s="26">
+        <v>-3.2859334482690401</v>
+      </c>
+      <c r="E24" s="26">
+        <v>1.01645022340291E-3</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0.29905501883748598</v>
+      </c>
+      <c r="G24" s="26">
+        <v>-2.2120597989801198</v>
+      </c>
+      <c r="H24" s="26">
+        <v>2.6962533357340199E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="26">
+        <v>-1.3230359208482501</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.13422064001953801</v>
+      </c>
+      <c r="D25" s="26">
+        <v>-9.8571718973748297</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0.175662067414218</v>
+      </c>
+      <c r="G25" s="26">
+        <v>-7.5317109739376997</v>
+      </c>
+      <c r="H25" s="26">
+        <v>5.0182080713057101E-14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="26">
+        <v>0</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="26">
+        <v>0</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="26">
+        <v>0</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="26">
+        <v>0</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="26">
+        <v>0</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="26">
+        <v>0</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="26">
+        <v>-0.392980002332041</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.18781289416956001</v>
+      </c>
+      <c r="D35" s="26">
+        <v>-2.09240161102705</v>
+      </c>
+      <c r="E35" s="26">
+        <v>3.6402604808312103E-2</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0.272339591933909</v>
+      </c>
+      <c r="G35" s="26">
+        <v>-1.44297786282726</v>
+      </c>
+      <c r="H35" s="26">
+        <v>0.14902670735124601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="76" customFormat="1">
+      <c r="A43" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="67">
+        <v>-2.0036664334010901E-3</v>
+      </c>
+      <c r="C43" s="67">
+        <v>0.22331122726884001</v>
+      </c>
+      <c r="D43" s="67">
+        <v>-8.9725288688190692E-3</v>
+      </c>
+      <c r="E43" s="67">
+        <v>0.99284105380102095</v>
+      </c>
+      <c r="F43" s="67">
+        <v>0.24280656855573901</v>
+      </c>
+      <c r="G43" s="67">
+        <v>-8.2521096744593205E-3</v>
+      </c>
+      <c r="H43" s="67">
+        <v>0.99341584382400705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="26">
+        <v>-2.21491386090845</v>
+      </c>
+      <c r="C44" s="26">
+        <v>0.282049451244751</v>
+      </c>
+      <c r="D44" s="26">
+        <v>-7.8529273896244502</v>
+      </c>
+      <c r="E44" s="26">
+        <v>3.9968028886505604E-15</v>
+      </c>
+      <c r="F44" s="26">
+        <v>0.40356103953272598</v>
+      </c>
+      <c r="G44" s="26">
+        <v>-5.4884234203406903</v>
+      </c>
+      <c r="H44" s="26">
+        <v>4.0553701508017097E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="76" customFormat="1">
+      <c r="A52" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="67">
+        <v>0.46782470760488998</v>
+      </c>
+      <c r="C52" s="67">
+        <v>0.30199610905076701</v>
+      </c>
+      <c r="D52" s="67">
+        <v>1.54910839439407</v>
+      </c>
+      <c r="E52" s="67">
+        <v>0.121355665313199</v>
+      </c>
+      <c r="F52" s="67">
+        <v>0.36858505038733302</v>
+      </c>
+      <c r="G52" s="67">
+        <v>1.2692449330575699</v>
+      </c>
+      <c r="H52" s="67">
+        <v>0.204353719765591</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BA101E-0096-4443-A5B7-9E57B2948D53}">
+  <dimension ref="A1:Z21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="17"/>
+    <col min="3" max="3" width="10.83203125" style="18"/>
+    <col min="4" max="4" width="10.83203125" style="20"/>
+    <col min="5" max="5" width="27.83203125" style="24" customWidth="1"/>
+    <col min="6" max="12" width="10.83203125" style="17"/>
+    <col min="13" max="13" width="5.5" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="18" customWidth="1"/>
+    <col min="15" max="17" width="10.83203125" style="17"/>
+    <col min="18" max="21" width="16.1640625" style="24" customWidth="1"/>
+    <col min="22" max="23" width="10.83203125" style="24"/>
+    <col min="24" max="24" width="10.83203125" style="45"/>
+    <col min="25" max="25" width="10.83203125" style="16"/>
+    <col min="26" max="16384" width="10.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="7" customFormat="1" ht="41" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="5"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="52"/>
+    </row>
+    <row r="2" spans="1:26" s="7" customFormat="1" ht="68" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="8" customFormat="1" ht="40" customHeight="1">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="38">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="9"/>
+    </row>
+    <row r="4" spans="1:26" s="8" customFormat="1" ht="40" hidden="1" customHeight="1">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" s="13" customFormat="1" ht="34" hidden="1">
+      <c r="A5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>334</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="19">
+        <v>-12.69065975</v>
+      </c>
+      <c r="G5" s="19">
+        <v>-5.4230934299999998</v>
+      </c>
+      <c r="H5" s="19">
+        <v>-0.70495701</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.60290829999999995</v>
+      </c>
+      <c r="J5" s="21">
+        <v>-0.63559155000000001</v>
+      </c>
+      <c r="K5" s="19">
+        <v>-0.39466126000000001</v>
+      </c>
+      <c r="L5" s="19">
+        <v>-1.44312258</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="74"/>
+      <c r="P5" s="12">
+        <v>-6.8361689999999996E-3</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>7.4320150000000001E-2</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="16"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="20">
+        <v>666</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+    </row>
+    <row r="7" spans="1:26" ht="70" customHeight="1">
+      <c r="A7" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.1517</v>
+      </c>
+      <c r="D7" s="20">
+        <f>C7*$D$6</f>
+        <v>101.0322</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-5.5212979999999998</v>
+      </c>
+      <c r="G7" s="19">
+        <v>-5.0702980000000002</v>
+      </c>
+      <c r="H7" s="37">
+        <v>-2.2054994400000001</v>
+      </c>
+      <c r="I7" s="37">
+        <v>0.69366450000000002</v>
+      </c>
+      <c r="J7" s="19">
+        <v>-0.27739009999999997</v>
+      </c>
+      <c r="K7" s="19">
+        <v>-7.0867799999999995E-2</v>
+      </c>
+      <c r="L7" s="19">
+        <v>-0.85572130000000002</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="35">
+        <v>0.49009900000000001</v>
+      </c>
+      <c r="O7" s="37">
+        <v>5.831683</v>
+      </c>
+      <c r="P7" s="37">
+        <v>-0.42268650000000002</v>
+      </c>
+      <c r="Q7" s="37">
+        <v>0.18153359999999999</v>
+      </c>
+      <c r="R7" s="35">
+        <v>0.65346530000000003</v>
+      </c>
+      <c r="S7" s="35">
+        <v>0.12871289999999999</v>
+      </c>
+      <c r="T7" s="35">
+        <v>0.3069307</v>
+      </c>
+      <c r="U7" s="35">
+        <v>0.17326730000000001</v>
+      </c>
+      <c r="V7" s="37">
+        <v>3.1188120000000001</v>
+      </c>
+      <c r="W7" s="37">
+        <v>3.2871290000000002</v>
+      </c>
+      <c r="X7" s="37">
+        <v>21163.37</v>
+      </c>
+      <c r="Y7" s="37">
+        <v>1.707921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="65" customHeight="1">
+      <c r="A8" s="71"/>
+      <c r="B8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.23530000000000001</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" ref="D8:D9" si="0">C8*$D$6</f>
+        <v>156.7098</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-6.0668170000000003</v>
+      </c>
+      <c r="G8" s="19">
+        <v>-0.39934120000000001</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.68703064999999996</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0.35939880000000002</v>
+      </c>
+      <c r="J8" s="19">
+        <v>-0.18162800000000001</v>
+      </c>
+      <c r="K8" s="19">
+        <v>-9.1632080000000005E-2</v>
+      </c>
+      <c r="L8" s="19">
+        <v>-0.81629600000000002</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="35">
+        <v>0.52264809999999995</v>
+      </c>
+      <c r="O8" s="37">
+        <v>7.4965159999999997</v>
+      </c>
+      <c r="P8" s="37">
+        <v>0.53393820000000003</v>
+      </c>
+      <c r="Q8" s="37">
+        <v>-0.18165580000000001</v>
+      </c>
+      <c r="R8" s="35">
+        <v>0.72473869999999996</v>
+      </c>
+      <c r="S8" s="35">
+        <v>0.261324</v>
+      </c>
+      <c r="T8" s="35">
+        <v>0.42857139999999999</v>
+      </c>
+      <c r="U8" s="35">
+        <v>0.35540070000000001</v>
+      </c>
+      <c r="V8" s="37">
+        <v>3.6153849999999998</v>
+      </c>
+      <c r="W8" s="37">
+        <v>3.0874130000000002</v>
+      </c>
+      <c r="X8" s="37">
+        <v>24721.25</v>
+      </c>
+      <c r="Y8" s="37">
+        <v>2.7386759999999999</v>
+      </c>
+      <c r="Z8" s="72"/>
+    </row>
+    <row r="9" spans="1:26" ht="78" customHeight="1">
+      <c r="A9" s="71"/>
+      <c r="B9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.61309999999999998</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="0"/>
+        <v>408.32459999999998</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="19">
+        <v>-7.6926959999999998</v>
+      </c>
+      <c r="G9" s="19">
+        <v>-4.6299311000000003</v>
+      </c>
+      <c r="H9" s="37">
+        <v>3.0856189999999999E-2</v>
+      </c>
+      <c r="I9" s="54">
+        <v>0.58470180000000005</v>
+      </c>
+      <c r="J9" s="54">
+        <v>-0.34554220000000002</v>
+      </c>
+      <c r="K9" s="54">
+        <v>-0.17612263</v>
+      </c>
+      <c r="L9" s="54">
+        <v>-0.50000730000000004</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="35">
+        <v>0.66101690000000002</v>
+      </c>
+      <c r="O9" s="37">
+        <v>9.324859</v>
+      </c>
+      <c r="P9" s="37">
+        <v>-0.13902700000000001</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>0.33123279999999999</v>
+      </c>
+      <c r="R9" s="35">
+        <v>0.63841809999999999</v>
+      </c>
+      <c r="S9" s="35">
+        <v>0.18644069999999999</v>
+      </c>
+      <c r="T9" s="35">
+        <v>0.40112989999999998</v>
+      </c>
+      <c r="U9" s="35">
+        <v>0.29943500000000001</v>
+      </c>
+      <c r="V9" s="37">
+        <v>3.429379</v>
+      </c>
+      <c r="W9" s="37">
+        <v>3.2203390000000001</v>
+      </c>
+      <c r="X9" s="37">
+        <v>26949.15</v>
+      </c>
+      <c r="Y9" s="37">
+        <v>1.9548019999999999</v>
+      </c>
+      <c r="Z9" s="72"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="57"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="H13" s="28"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="6:26">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="6:26">
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="6:26">
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="57"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="6:26">
+      <c r="F20" s="37"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="57"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="6:26">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="57"/>
+      <c r="Z21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="Z8:Z9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87241B1-EEA4-9644-98C8-8514E386A931}">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/code/output/model_output/apollo/vehicle/0_vehicle_model_combine_output.xlsx
+++ b/code/output/model_output/apollo/vehicle/0_vehicle_model_combine_output.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/model_output/apollo/vehicle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE0C88-378C-6740-B561-BEE3FAFB42ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A083E-C5E8-5941-AD21-C6B7DED4E676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="960" windowWidth="28880" windowHeight="16760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="1040" windowWidth="28880" windowHeight="17000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pref_1class" sheetId="6" r:id="rId1"/>
     <sheet name="wtp_1class" sheetId="7" r:id="rId2"/>
-    <sheet name="coef_fit" sheetId="1" r:id="rId3"/>
-    <sheet name="WTP" sheetId="2" r:id="rId4"/>
+    <sheet name="coef_fit_nonstandard" sheetId="1" r:id="rId3"/>
+    <sheet name="WTP_nonstandard" sheetId="2" r:id="rId4"/>
     <sheet name="car_suv_combined" sheetId="8" r:id="rId5"/>
     <sheet name="WTP_combined" sheetId="9" r:id="rId6"/>
     <sheet name="Factor_analysis" sheetId="3" r:id="rId7"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="134">
   <si>
     <t>b_no_choice_a</t>
   </si>
@@ -496,6 +496,27 @@
   <si>
     <t>Inactive Indicators (included in the model)</t>
   </si>
+  <si>
+    <t>wtp_powertrainbev</t>
+  </si>
+  <si>
+    <t>wtp_powertrainhev</t>
+  </si>
+  <si>
+    <t>wtp_range_bev</t>
+  </si>
+  <si>
+    <t>wtp_mileage</t>
+  </si>
+  <si>
+    <t>wtp_age</t>
+  </si>
+  <si>
+    <t>wtp_operating_cost</t>
+  </si>
+  <si>
+    <t>I have a no choice alternative how will my utility looks like in the WTP space?</t>
+  </si>
 </sst>
 </file>
 
@@ -505,7 +526,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -701,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -844,15 +865,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -868,6 +880,16 @@
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,10 +973,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>360555</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7772400" cy="7202424"/>
     <xdr:pic>
@@ -978,7 +1000,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12001500" y="342900"/>
+          <a:off x="22105433" y="0"/>
           <a:ext cx="7772400" cy="7202424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1151,6 +1173,94 @@
         <a:xfrm>
           <a:off x="0" y="23075900"/>
           <a:ext cx="7645400" cy="6184900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>51109</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605264</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824D5139-21D2-4442-8A98-C3EE0B5B7991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8662329" y="5100134"/>
+          <a:ext cx="5479276" cy="2372068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>696951</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>260814</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B92F206-3F5A-B81C-58BB-E3B63831455E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7666463" y="774389"/>
+          <a:ext cx="7772400" cy="3784314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,21 +1641,21 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="26" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>83</v>
       </c>
@@ -1568,9 +1678,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1">
-      <c r="A3" s="26" t="s">
-        <v>113</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>133</v>
       </c>
       <c r="B3" s="26">
         <v>-5.0045006659382203</v>
@@ -1594,11 +1704,11 @@
         <v>0</v>
       </c>
       <c r="I3" s="26">
-        <f>B3/-B$10</f>
+        <f t="shared" ref="I3:I9" si="0">B3/-B$10</f>
         <v>-5.8350257970086181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="26" customFormat="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>114</v>
       </c>
@@ -1624,11 +1734,11 @@
         <v>8.8817841970012504E-16</v>
       </c>
       <c r="I4" s="26">
-        <f>B4/-B$10</f>
+        <f t="shared" si="0"/>
         <v>-2.4819885390411764</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="26" customFormat="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>115</v>
       </c>
@@ -1654,11 +1764,11 @@
         <v>5.7095407294838196E-4</v>
       </c>
       <c r="I5" s="26">
-        <f>B5/-B$10</f>
+        <f t="shared" si="0"/>
         <v>-0.43977736997649758</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="26" customFormat="1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -1684,11 +1794,11 @@
         <v>3.4075240688706799E-3</v>
       </c>
       <c r="I6" s="26">
-        <f>B6/-B$10</f>
+        <f t="shared" si="0"/>
         <v>0.49936891019609503</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="26" customFormat="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>117</v>
       </c>
@@ -1714,11 +1824,11 @@
         <v>2.4897381933897102E-9</v>
       </c>
       <c r="I7" s="26">
-        <f>B7/-B$10</f>
+        <f t="shared" si="0"/>
         <v>-0.20441204250829936</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="26" customFormat="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>118</v>
       </c>
@@ -1744,11 +1854,11 @@
         <v>1.48143008971147E-9</v>
       </c>
       <c r="I8" s="26">
-        <f>B8/-B$10</f>
+        <f t="shared" si="0"/>
         <v>-0.10699380218909969</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="26" customFormat="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -1774,11 +1884,11 @@
         <v>3.12454950801566E-10</v>
       </c>
       <c r="I9" s="26">
-        <f>B9/-B$10</f>
+        <f t="shared" si="0"/>
         <v>-0.82726307166411928</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="26" customFormat="1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -1804,12 +1914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="26" customFormat="1">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="67" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="26" customFormat="1">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>83</v>
       </c>
@@ -1832,7 +1942,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="26" customFormat="1">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>113</v>
       </c>
@@ -1858,11 +1968,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="26">
-        <f>B15/-B$22</f>
+        <f t="shared" ref="I15:I21" si="1">B15/-B$22</f>
         <v>-7.1134025162614769</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="26" customFormat="1">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>114</v>
       </c>
@@ -1888,11 +1998,11 @@
         <v>1.8518970801295601E-9</v>
       </c>
       <c r="I16" s="26">
-        <f>B16/-B$22</f>
+        <f t="shared" si="1"/>
         <v>-2.9255206679995869</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="26" customFormat="1">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>115</v>
       </c>
@@ -1918,11 +2028,11 @@
         <v>0.12886505514252899</v>
       </c>
       <c r="I17" s="26">
-        <f>B17/-B$22</f>
+        <f t="shared" si="1"/>
         <v>-0.21265862055045123</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="26" customFormat="1">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>116</v>
       </c>
@@ -1948,11 +2058,11 @@
         <v>2.9186174621336201E-3</v>
       </c>
       <c r="I18" s="26">
-        <f>B18/-B$22</f>
+        <f t="shared" si="1"/>
         <v>0.50142311692787622</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="26" customFormat="1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>117</v>
       </c>
@@ -1978,11 +2088,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="26">
-        <f>B19/-B$22</f>
+        <f t="shared" si="1"/>
         <v>-0.35126356891015237</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="26" customFormat="1">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>118</v>
       </c>
@@ -2008,11 +2118,11 @@
         <v>6.5747407518301803E-12</v>
       </c>
       <c r="I20" s="26">
-        <f>B20/-B$22</f>
+        <f t="shared" si="1"/>
         <v>-0.14753098306707865</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="26" customFormat="1">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>119</v>
       </c>
@@ -2038,11 +2148,11 @@
         <v>4.4832286039131501E-7</v>
       </c>
       <c r="I21" s="26">
-        <f>B21/-B$22</f>
+        <f t="shared" si="1"/>
         <v>-0.77057717746683796</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="26" customFormat="1">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>120</v>
       </c>
@@ -2068,18 +2178,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="26" customFormat="1" ht="16">
-      <c r="B27" s="70" t="s">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-    </row>
-    <row r="28" spans="1:9" s="26" customFormat="1" ht="17">
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>42</v>
       </c>
@@ -2102,7 +2212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="26" customFormat="1" ht="42">
+    <row r="29" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
@@ -2119,7 +2229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="26" customFormat="1">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
@@ -2128,7 +2238,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:9" s="26" customFormat="1" ht="16">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>102</v>
       </c>
@@ -2154,7 +2264,7 @@
         <v>-0.82726310000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="26" customFormat="1">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>103</v>
       </c>
@@ -2180,12 +2290,12 @@
         <v>-0.77057719999999996</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="26" customFormat="1">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E33" s="66"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="2:8" s="26" customFormat="1">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -2204,24 +2314,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAF559C-1D3C-3348-B1FD-69C9536248D3}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="26" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" customHeight="1">
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>83</v>
       </c>
@@ -2244,7 +2354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>113</v>
       </c>
@@ -2270,9 +2380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B4" s="26">
         <v>-2.4819854517854898</v>
@@ -2296,9 +2406,9 @@
         <v>4.7124082414029499E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B5" s="26">
         <v>-0.43977955300725102</v>
@@ -2322,9 +2432,9 @@
         <v>9.9597042519006295E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B6" s="26">
         <v>0.499364401818649</v>
@@ -2348,9 +2458,9 @@
         <v>4.9431530366070798E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B7" s="26">
         <v>-0.20441265994548199</v>
@@ -2374,9 +2484,9 @@
         <v>6.3152191920323704E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B8" s="26">
         <v>-0.106994006327932</v>
@@ -2400,9 +2510,9 @@
         <v>1.9509192683564399E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B9" s="26">
         <v>-0.82726623838640601</v>
@@ -2426,7 +2536,7 @@
         <v>8.0853415074244595E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>121</v>
       </c>
@@ -2452,12 +2562,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="67" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>83</v>
       </c>
@@ -2480,7 +2590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>113</v>
       </c>
@@ -2506,9 +2616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B16" s="26">
         <v>-2.9255105828363299</v>
@@ -2532,9 +2642,9 @@
         <v>7.6542137517066106E-8</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B17" s="26">
         <v>-0.21265454764581199</v>
@@ -2558,9 +2668,9 @@
         <v>0.13865032162449101</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B18" s="26">
         <v>0.50142044513103601</v>
@@ -2584,9 +2694,9 @@
         <v>3.5998133347045999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B19" s="26">
         <v>-0.35126190362368398</v>
@@ -2610,9 +2720,9 @@
         <v>2.22510898595374E-12</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B20" s="26">
         <v>-0.14753066600800199</v>
@@ -2636,9 +2746,9 @@
         <v>4.8441761713036199E-10</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B21" s="26">
         <v>-0.77057479161425502</v>
@@ -2662,7 +2772,7 @@
         <v>4.3286826210131596E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>121</v>
       </c>
@@ -2688,18 +2798,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16">
-      <c r="B27" s="70" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="26">
+        <f>B3/B10</f>
+        <v>-5.8350334140072482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="26">
+        <f>B15/B22</f>
+        <v>-7.113391106224122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-    </row>
-    <row r="28" spans="1:8" ht="17">
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>42</v>
       </c>
@@ -2722,7 +2844,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="42">
+    <row r="29" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2739,7 +2861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2748,7 +2870,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>102</v>
       </c>
@@ -2773,8 +2895,11 @@
       <c r="H31" s="19">
         <v>-0.82726310000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="26">
+        <v>-5.8350257970086181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>103</v>
       </c>
@@ -2799,13 +2924,16 @@
       <c r="H32" s="19">
         <v>-0.77057719999999996</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="E33" s="66"/>
+      <c r="J32" s="26">
+        <v>-7.1134025162614769</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E33" s="80"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -2827,18 +2955,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" customWidth="1"/>
     <col min="18" max="20" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24">
+    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>102</v>
       </c>
@@ -2846,7 +2974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="26"/>
       <c r="B2" s="26" t="s">
         <v>83</v>
@@ -2892,7 +3020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +3070,7 @@
         <v>9.7309081814600496E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
@@ -2992,7 +3120,7 @@
         <v>1.99945656745637E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>2</v>
       </c>
@@ -3042,7 +3170,7 @@
         <v>2.5738827960486402E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
@@ -3092,7 +3220,7 @@
         <v>2.52246528512787E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
@@ -3142,7 +3270,7 @@
         <v>1.23442339687949E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
@@ -3192,7 +3320,7 @@
         <v>7.8374105737521998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
@@ -3242,7 +3370,7 @@
         <v>5.7380340461898904E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -3292,7 +3420,7 @@
         <v>1.4437543389256299E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
@@ -3342,7 +3470,7 @@
         <v>6.0992988437647E-11</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
@@ -3392,7 +3520,7 @@
         <v>0.639483597759397</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
@@ -3442,7 +3570,7 @@
         <v>1.7298111409935799E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -3492,7 +3620,7 @@
         <v>0.305538743697302</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
@@ -3542,7 +3670,7 @@
         <v>7.31428727880568E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
@@ -3592,7 +3720,7 @@
         <v>2.9355465688169998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>14</v>
       </c>
@@ -3642,7 +3770,7 @@
         <v>4.3992805522008498E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
@@ -3692,7 +3820,7 @@
         <v>2.6443770062556399E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>22</v>
       </c>
@@ -3742,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>23</v>
       </c>
@@ -3792,7 +3920,7 @@
         <v>3.6723041368702498E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>24</v>
       </c>
@@ -3842,7 +3970,7 @@
         <v>0.23998815478865199</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>25</v>
       </c>
@@ -3892,7 +4020,7 @@
         <v>0.48143563174861997</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>26</v>
       </c>
@@ -3942,7 +4070,7 @@
         <v>4.8559727350294704E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
@@ -3992,7 +4120,7 @@
         <v>2.59280922785932E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>28</v>
       </c>
@@ -4042,7 +4170,7 @@
         <v>0.321914053457242</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>29</v>
       </c>
@@ -4092,7 +4220,7 @@
         <v>3.1927571697565301E-11</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>16</v>
       </c>
@@ -4142,7 +4270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
@@ -4192,7 +4320,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>18</v>
       </c>
@@ -4242,7 +4370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
         <v>71</v>
       </c>
@@ -4292,7 +4420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>90</v>
       </c>
@@ -4342,7 +4470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>91</v>
       </c>
@@ -4392,7 +4520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>92</v>
       </c>
@@ -4442,7 +4570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>93</v>
       </c>
@@ -4492,7 +4620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>19</v>
       </c>
@@ -4542,7 +4670,7 @@
         <v>0.36965656458838297</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>20</v>
       </c>
@@ -4592,7 +4720,7 @@
         <v>5.4024935891572304E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
         <v>21</v>
       </c>
@@ -4642,7 +4770,7 @@
         <v>0.44341707738672698</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
         <v>72</v>
       </c>
@@ -4692,7 +4820,7 @@
         <v>4.1727130896959098E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
         <v>94</v>
       </c>
@@ -4742,7 +4870,7 @@
         <v>0.86019547104338201</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
         <v>95</v>
       </c>
@@ -4792,7 +4920,7 @@
         <v>2.2198185667826598E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
         <v>96</v>
       </c>
@@ -4842,7 +4970,7 @@
         <v>0.173061346374841</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
         <v>97</v>
       </c>
@@ -4892,7 +5020,7 @@
         <v>9.2294271897064295E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
         <v>30</v>
       </c>
@@ -4942,7 +5070,7 @@
         <v>0.14138501593751199</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
         <v>31</v>
       </c>
@@ -4992,7 +5120,7 @@
         <v>0.83509184471389397</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
         <v>32</v>
       </c>
@@ -5042,7 +5170,7 @@
         <v>0.72785799491410197</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
         <v>98</v>
       </c>
@@ -5092,7 +5220,7 @@
         <v>0.37428958883591901</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
         <v>73</v>
       </c>
@@ -5142,7 +5270,7 @@
         <v>9.7131059576570894E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
         <v>99</v>
       </c>
@@ -5192,7 +5320,7 @@
         <v>5.8515655423800203E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="26" t="s">
         <v>100</v>
       </c>
@@ -5242,7 +5370,7 @@
         <v>1.1529022206937699E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
         <v>101</v>
       </c>
@@ -5327,13 +5455,13 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="17"/>
@@ -5351,7 +5479,7 @@
     <col min="31" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="7" customFormat="1" ht="41" customHeight="1">
+    <row r="1" spans="1:31" s="7" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5361,25 +5489,25 @@
       <c r="E1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
       <c r="M1" s="44"/>
       <c r="N1" s="44"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="70" t="s">
+      <c r="S1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="70"/>
+      <c r="T1" s="77"/>
       <c r="U1" s="5"/>
       <c r="AB1" s="55"/>
       <c r="AC1" s="52"/>
@@ -5387,7 +5515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="7" customFormat="1" ht="68" customHeight="1">
+    <row r="2" spans="1:31" s="7" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -5404,35 +5532,35 @@
       <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="62" t="s">
         <v>56</v>
       </c>
       <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="62" t="s">
         <v>107</v>
       </c>
       <c r="S2" s="7" t="s">
@@ -5456,21 +5584,21 @@
       <c r="Y2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="39" t="s">
         <v>46</v>
       </c>
       <c r="AD2" s="48"/>
     </row>
-    <row r="3" spans="1:31" s="8" customFormat="1" ht="40" customHeight="1">
+    <row r="3" spans="1:31" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -5507,7 +5635,7 @@
       <c r="AC3" s="9"/>
       <c r="AD3" s="49"/>
     </row>
-    <row r="4" spans="1:31" s="8" customFormat="1" ht="40" hidden="1" customHeight="1">
+    <row r="4" spans="1:31" s="8" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
@@ -5529,7 +5657,7 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="49"/>
     </row>
-    <row r="5" spans="1:31" s="13" customFormat="1" ht="34" hidden="1">
+    <row r="5" spans="1:31" s="13" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
@@ -5584,7 +5712,7 @@
       <c r="AC5" s="16"/>
       <c r="AD5" s="50"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>102</v>
       </c>
@@ -5611,8 +5739,8 @@
       <c r="X6" s="40"/>
       <c r="Y6" s="40"/>
     </row>
-    <row r="7" spans="1:31" ht="70" customHeight="1">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:31" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="78" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -5704,8 +5832,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="65" customHeight="1">
-      <c r="A8" s="71"/>
+    <row r="8" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="78"/>
       <c r="B8" s="12" t="s">
         <v>60</v>
       </c>
@@ -5794,10 +5922,10 @@
       <c r="AD8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="AE8" s="72"/>
-    </row>
-    <row r="9" spans="1:31" ht="78" customHeight="1">
-      <c r="A9" s="71"/>
+      <c r="AE8" s="79"/>
+    </row>
+    <row r="9" spans="1:31" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="78"/>
       <c r="B9" s="12" t="s">
         <v>61</v>
       </c>
@@ -5886,12 +6014,12 @@
       <c r="AD9" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="AE9" s="72"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AE9" s="79"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="N10" s="19"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>103</v>
       </c>
@@ -5910,8 +6038,8 @@
       <c r="AB11" s="59"/>
       <c r="AC11" s="39"/>
     </row>
-    <row r="12" spans="1:31" ht="32">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="78" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -6002,8 +6130,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="48">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="78"/>
       <c r="B13" s="12" t="s">
         <v>60</v>
       </c>
@@ -6091,8 +6219,8 @@
       </c>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:31" ht="17">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="78"/>
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -6178,7 +6306,7 @@
       </c>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="H15" s="28"/>
       <c r="I15" s="29"/>
       <c r="S15" s="2"/>
@@ -6194,7 +6322,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
       <c r="S16" s="2"/>
@@ -6211,7 +6339,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" spans="8:31">
+    <row r="17" spans="8:31" x14ac:dyDescent="0.2">
       <c r="H17" s="28"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
@@ -6237,7 +6365,7 @@
       <c r="AD17" s="33"/>
       <c r="AE17" s="2"/>
     </row>
-    <row r="18" spans="8:31">
+    <row r="18" spans="8:31" x14ac:dyDescent="0.2">
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="36"/>
@@ -6262,7 +6390,7 @@
       <c r="AD18" s="33"/>
       <c r="AE18" s="2"/>
     </row>
-    <row r="19" spans="8:31">
+    <row r="19" spans="8:31" x14ac:dyDescent="0.2">
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="S19" s="34"/>
@@ -6272,7 +6400,7 @@
       <c r="Z19" s="34"/>
       <c r="AE19" s="2"/>
     </row>
-    <row r="20" spans="8:31">
+    <row r="20" spans="8:31" x14ac:dyDescent="0.2">
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="S20" s="34"/>
@@ -6282,7 +6410,7 @@
       <c r="Z20" s="34"/>
       <c r="AE20" s="2"/>
     </row>
-    <row r="21" spans="8:31">
+    <row r="21" spans="8:31" x14ac:dyDescent="0.2">
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="S21" s="34"/>
@@ -6292,7 +6420,7 @@
       <c r="Z21" s="34"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" spans="8:31">
+    <row r="22" spans="8:31" x14ac:dyDescent="0.2">
       <c r="I22" s="34"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
@@ -6317,7 +6445,7 @@
       <c r="AD22" s="32"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="8:31">
+    <row r="23" spans="8:31" x14ac:dyDescent="0.2">
       <c r="S23" s="2"/>
       <c r="T23" s="34"/>
       <c r="U23" s="34"/>
@@ -6331,7 +6459,7 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="24" spans="8:31">
+    <row r="24" spans="8:31" x14ac:dyDescent="0.2">
       <c r="S24" s="2"/>
       <c r="T24" s="34"/>
       <c r="U24" s="32"/>
@@ -6345,7 +6473,7 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
     </row>
-    <row r="25" spans="8:31">
+    <row r="25" spans="8:31" x14ac:dyDescent="0.2">
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -6379,12 +6507,12 @@
       <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="26"/>
       <c r="B1" s="26" t="s">
         <v>83</v>
@@ -6408,7 +6536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -6434,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
@@ -6460,7 +6588,7 @@
         <v>5.8822429149785202E-9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
@@ -6486,7 +6614,7 @@
         <v>6.0279373914617896E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
@@ -6512,7 +6640,7 @@
         <v>3.6157114420322503E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
@@ -6538,7 +6666,7 @@
         <v>2.1666299047762301E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
@@ -6564,7 +6692,7 @@
         <v>1.30415805791173E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -6590,7 +6718,7 @@
         <v>3.5481616786991999E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
@@ -6616,7 +6744,7 @@
         <v>1.63264024521936E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>8</v>
       </c>
@@ -6642,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
@@ -6668,7 +6796,7 @@
         <v>0.23525886487537301</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>10</v>
       </c>
@@ -6694,7 +6822,7 @@
         <v>2.2535603312334699E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
@@ -6720,7 +6848,7 @@
         <v>1.57892081157152E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
@@ -6746,7 +6874,7 @@
         <v>1.83588878510665E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
@@ -6772,7 +6900,7 @@
         <v>7.45437928761916E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
@@ -6798,7 +6926,7 @@
         <v>1.0772508720613399E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
@@ -6824,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>22</v>
       </c>
@@ -6850,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>23</v>
       </c>
@@ -6876,7 +7004,7 @@
         <v>2.90985350500428E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
@@ -6902,7 +7030,7 @@
         <v>0.88340437010588002</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>25</v>
       </c>
@@ -6928,7 +7056,7 @@
         <v>7.0378497831290895E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>26</v>
       </c>
@@ -6954,7 +7082,7 @@
         <v>3.6429685934535899E-9</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>27</v>
       </c>
@@ -6980,7 +7108,7 @@
         <v>8.2405128298823595E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>28</v>
       </c>
@@ -7006,7 +7134,7 @@
         <v>2.6962533357340199E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>29</v>
       </c>
@@ -7032,7 +7160,7 @@
         <v>5.0182080713057101E-14</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>16</v>
       </c>
@@ -7058,7 +7186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>17</v>
       </c>
@@ -7084,7 +7212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
         <v>18</v>
       </c>
@@ -7110,7 +7238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>71</v>
       </c>
@@ -7136,7 +7264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
         <v>90</v>
       </c>
@@ -7162,7 +7290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>91</v>
       </c>
@@ -7188,7 +7316,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>92</v>
       </c>
@@ -7214,7 +7342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>93</v>
       </c>
@@ -7240,7 +7368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>122</v>
       </c>
@@ -7266,7 +7394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>19</v>
       </c>
@@ -7292,7 +7420,7 @@
         <v>0.14902670735124601</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>20</v>
       </c>
@@ -7318,7 +7446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
         <v>21</v>
       </c>
@@ -7344,7 +7472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
         <v>72</v>
       </c>
@@ -7370,7 +7498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
         <v>94</v>
       </c>
@@ -7396,7 +7524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
         <v>95</v>
       </c>
@@ -7422,7 +7550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
         <v>96</v>
       </c>
@@ -7448,7 +7576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
         <v>97</v>
       </c>
@@ -7474,7 +7602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="76" customFormat="1">
+    <row r="43" spans="1:8" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="67" t="s">
         <v>123</v>
       </c>
@@ -7500,7 +7628,7 @@
         <v>0.99341584382400705</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
         <v>30</v>
       </c>
@@ -7526,7 +7654,7 @@
         <v>4.0553701508017097E-8</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
         <v>31</v>
       </c>
@@ -7552,7 +7680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
         <v>32</v>
       </c>
@@ -7578,7 +7706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
         <v>98</v>
       </c>
@@ -7604,7 +7732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
         <v>73</v>
       </c>
@@ -7630,7 +7758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="26" t="s">
         <v>99</v>
       </c>
@@ -7656,7 +7784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
         <v>100</v>
       </c>
@@ -7682,7 +7810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
         <v>101</v>
       </c>
@@ -7708,7 +7836,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="76" customFormat="1">
+    <row r="52" spans="1:8" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="67" t="s">
         <v>124</v>
       </c>
@@ -7743,14 +7871,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BA101E-0096-4443-A5B7-9E57B2948D53}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="17"/>
@@ -7768,7 +7896,7 @@
     <col min="26" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" ht="41" customHeight="1">
+    <row r="1" spans="1:26" s="7" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -7778,26 +7906,26 @@
       <c r="E1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
       <c r="M1" s="6"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="70" t="s">
+      <c r="O1" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="70"/>
+      <c r="P1" s="77"/>
       <c r="Q1" s="5"/>
       <c r="X1" s="55"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:26" s="7" customFormat="1" ht="68" customHeight="1">
+    <row r="2" spans="1:26" s="7" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -7823,7 +7951,7 @@
       <c r="I2" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="74" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="62" t="s">
@@ -7832,7 +7960,7 @@
       <c r="L2" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="75" t="s">
         <v>125</v>
       </c>
       <c r="O2" s="7" t="s">
@@ -7862,14 +7990,14 @@
       <c r="W2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="X2" s="79" t="s">
+      <c r="X2" s="76" t="s">
         <v>77</v>
       </c>
       <c r="Y2" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="8" customFormat="1" ht="40" customHeight="1">
+    <row r="3" spans="1:26" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -7901,7 +8029,7 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="8" customFormat="1" ht="40" hidden="1" customHeight="1">
+    <row r="4" spans="1:26" s="8" customFormat="1" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
@@ -7918,7 +8046,7 @@
       <c r="X4" s="11"/>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:26" s="13" customFormat="1" ht="34" hidden="1">
+    <row r="5" spans="1:26" s="13" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
@@ -7954,7 +8082,7 @@
         <v>-1.44312258</v>
       </c>
       <c r="M5" s="16"/>
-      <c r="N5" s="74"/>
+      <c r="N5" s="71"/>
       <c r="P5" s="12">
         <v>-6.8361689999999996E-3</v>
       </c>
@@ -7968,7 +8096,7 @@
       <c r="X5" s="57"/>
       <c r="Y5" s="16"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>102</v>
       </c>
@@ -7990,8 +8118,8 @@
       <c r="T6" s="40"/>
       <c r="U6" s="40"/>
     </row>
-    <row r="7" spans="1:26" ht="70" customHeight="1">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:26" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="78" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -8066,8 +8194,8 @@
         <v>1.707921</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="65" customHeight="1">
-      <c r="A8" s="71"/>
+    <row r="8" spans="1:26" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="78"/>
       <c r="B8" s="12" t="s">
         <v>60</v>
       </c>
@@ -8139,10 +8267,10 @@
       <c r="Y8" s="37">
         <v>2.7386759999999999</v>
       </c>
-      <c r="Z8" s="72"/>
-    </row>
-    <row r="9" spans="1:26" ht="78" customHeight="1">
-      <c r="A9" s="71"/>
+      <c r="Z8" s="79"/>
+    </row>
+    <row r="9" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="78"/>
       <c r="B9" s="12" t="s">
         <v>61</v>
       </c>
@@ -8214,9 +8342,9 @@
       <c r="Y9" s="37">
         <v>1.9548019999999999</v>
       </c>
-      <c r="Z9" s="72"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="Z9" s="79"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H11" s="28"/>
       <c r="I11" s="29"/>
       <c r="O11" s="2"/>
@@ -8231,7 +8359,7 @@
       <c r="X11" s="57"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H12" s="28"/>
       <c r="I12" s="29"/>
       <c r="O12" s="2"/>
@@ -8247,14 +8375,14 @@
       <c r="Y12" s="53"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H13" s="28"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="73"/>
+      <c r="N13" s="70"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
@@ -8268,13 +8396,13 @@
       <c r="Y13" s="36"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
-      <c r="N14" s="73"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
@@ -8288,7 +8416,7 @@
       <c r="Y14" s="36"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
@@ -8297,7 +8425,7 @@
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="73"/>
+      <c r="N15" s="70"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
@@ -8308,7 +8436,7 @@
       <c r="V15" s="34"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
@@ -8317,7 +8445,7 @@
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
-      <c r="N16" s="73"/>
+      <c r="N16" s="70"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
@@ -8328,7 +8456,7 @@
       <c r="V16" s="34"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="6:26">
+    <row r="17" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="R17" s="17"/>
@@ -8338,7 +8466,7 @@
       <c r="V17" s="34"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="6:26">
+    <row r="18" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="R18" s="17"/>
@@ -8351,7 +8479,7 @@
       <c r="Y18" s="54"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="6:26">
+    <row r="19" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
       <c r="R19" s="17"/>
@@ -8363,7 +8491,7 @@
       <c r="X19" s="57"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="6:26">
+    <row r="20" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F20" s="37"/>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
@@ -8372,7 +8500,7 @@
       <c r="K20" s="54"/>
       <c r="L20" s="54"/>
       <c r="M20" s="54"/>
-      <c r="N20" s="75"/>
+      <c r="N20" s="72"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -8385,7 +8513,7 @@
       <c r="X20" s="57"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="6:26">
+    <row r="21" spans="6:26" x14ac:dyDescent="0.2">
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -8417,12 +8545,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="87.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34">
+    <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
         <v>44</v>
       </c>
@@ -8430,7 +8558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>63</v>
       </c>
@@ -8438,7 +8566,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>64</v>
       </c>
@@ -8446,7 +8574,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>65</v>
       </c>
@@ -8454,7 +8582,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>66</v>
       </c>
@@ -8462,7 +8590,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>67</v>
       </c>
@@ -8470,7 +8598,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>68</v>
       </c>
